--- a/sorted_result/realdata_summary.xlsx
+++ b/sorted_result/realdata_summary.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T73"/>
+  <dimension ref="A1:W92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,26 +494,29 @@
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>std</t>
         </is>
       </c>
-      <c r="J1" s="1" t="n"/>
       <c r="K1" s="1" t="n"/>
       <c r="L1" s="1" t="n"/>
       <c r="M1" s="1" t="n"/>
       <c r="N1" s="1" t="n"/>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>len</t>
         </is>
       </c>
-      <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="n"/>
       <c r="R1" s="1" t="n"/>
       <c r="S1" s="1" t="n"/>
       <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr"/>
@@ -527,26 +530,29 @@
       <c r="F2" s="1" t="n"/>
       <c r="G2" s="1" t="n"/>
       <c r="H2" s="1" t="n"/>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="n"/>
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
       </c>
-      <c r="J2" s="1" t="n"/>
       <c r="K2" s="1" t="n"/>
       <c r="L2" s="1" t="n"/>
       <c r="M2" s="1" t="n"/>
       <c r="N2" s="1" t="n"/>
-      <c r="O2" s="1" t="inlineStr">
+      <c r="O2" s="1" t="n"/>
+      <c r="P2" s="1" t="n"/>
+      <c r="Q2" s="1" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
       </c>
-      <c r="P2" s="1" t="n"/>
-      <c r="Q2" s="1" t="n"/>
       <c r="R2" s="1" t="n"/>
       <c r="S2" s="1" t="n"/>
       <c r="T2" s="1" t="n"/>
+      <c r="U2" s="1" t="n"/>
+      <c r="V2" s="1" t="n"/>
+      <c r="W2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="B3" s="1" t="inlineStr">
@@ -571,75 +577,90 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
+          <t>BKNN</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
           <t>KDE</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>KNN</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>WKNN</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="J3" s="1" t="inlineStr">
         <is>
           <t>AKDE</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
         <is>
           <t>AKNN</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="L3" s="1" t="inlineStr">
         <is>
           <t>AWNN</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>BKNN</t>
+        </is>
+      </c>
+      <c r="N3" s="1" t="inlineStr">
         <is>
           <t>KDE</t>
         </is>
       </c>
-      <c r="M3" s="1" t="inlineStr">
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>KNN</t>
         </is>
       </c>
-      <c r="N3" s="1" t="inlineStr">
+      <c r="P3" s="1" t="inlineStr">
         <is>
           <t>WKNN</t>
         </is>
       </c>
-      <c r="O3" s="1" t="inlineStr">
+      <c r="Q3" s="1" t="inlineStr">
         <is>
           <t>AKDE</t>
         </is>
       </c>
-      <c r="P3" s="1" t="inlineStr">
+      <c r="R3" s="1" t="inlineStr">
         <is>
           <t>AKNN</t>
         </is>
       </c>
-      <c r="Q3" s="1" t="inlineStr">
+      <c r="S3" s="1" t="inlineStr">
         <is>
           <t>AWNN</t>
         </is>
       </c>
-      <c r="R3" s="1" t="inlineStr">
+      <c r="T3" s="1" t="inlineStr">
+        <is>
+          <t>BKNN</t>
+        </is>
+      </c>
+      <c r="U3" s="1" t="inlineStr">
         <is>
           <t>KDE</t>
         </is>
       </c>
-      <c r="S3" s="1" t="inlineStr">
+      <c r="V3" s="1" t="inlineStr">
         <is>
           <t>KNN</t>
         </is>
       </c>
-      <c r="T3" s="1" t="inlineStr">
+      <c r="W3" s="1" t="inlineStr">
         <is>
           <t>WKNN</t>
         </is>
@@ -676,38 +697,38 @@
         <v>-0.6328</v>
       </c>
       <c r="F5" t="n">
+        <v>17.034</v>
+      </c>
+      <c r="G5" t="n">
         <v>-1.154</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>-0.633</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>-0.634</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.01296919426949875</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>8.497058314499197e-05</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>0.010733126291999</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
+        <v>4.396109643764587</v>
+      </c>
+      <c r="N5" t="n">
         <v>0.008944271909999134</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>0.01118033988749901</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>0.01118033988749893</v>
       </c>
-      <c r="O5" t="n">
-        <v>5</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
       <c r="Q5" t="n">
         <v>5</v>
       </c>
@@ -718,6 +739,15 @@
         <v>5</v>
       </c>
       <c r="T5" t="n">
+        <v>5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>5</v>
+      </c>
+      <c r="W5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -736,38 +766,38 @@
         <v>579.8</v>
       </c>
       <c r="F6" t="n">
+        <v>20120</v>
+      </c>
+      <c r="G6" t="n">
         <v>-6.464</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>-39.17999999999999</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>-18.4</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>8.362894235849216</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>1.352373912791873</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>432.0083332529594</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>5098.234988699521</v>
+      </c>
+      <c r="N6" t="n">
         <v>0.03130495168499636</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>31.931050718697</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>71.33056848224329</v>
       </c>
-      <c r="O6" t="n">
-        <v>5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
       <c r="Q6" t="n">
         <v>5</v>
       </c>
@@ -778,6 +808,15 @@
         <v>5</v>
       </c>
       <c r="T6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>5</v>
+      </c>
+      <c r="W6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -796,38 +835,38 @@
         <v>-2375.6</v>
       </c>
       <c r="F7" t="n">
+        <v>-7488</v>
+      </c>
+      <c r="G7" t="n">
         <v>-23.2</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>-881.6</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>-965.2</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>28.17445651649735</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>58.13776741499453</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>4066.513223881117</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
+        <v>6211.796841494416</v>
+      </c>
+      <c r="N7" t="n">
         <v>0</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>233.892710446478</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>528.1592562854503</v>
       </c>
-      <c r="O7" t="n">
-        <v>5</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
       <c r="Q7" t="n">
         <v>5</v>
       </c>
@@ -838,6 +877,15 @@
         <v>5</v>
       </c>
       <c r="T7" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>5</v>
+      </c>
+      <c r="W7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -856,38 +904,38 @@
         <v>-2424000000</v>
       </c>
       <c r="F8" t="n">
+        <v>-41200000</v>
+      </c>
+      <c r="G8" t="n">
         <v>-314.6</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>-658200</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>-1024000</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>460585.2820054067</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>47404.64112299555</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>169941166.289984</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
+        <v>6484597.134749391</v>
+      </c>
+      <c r="N8" t="n">
         <v>0.8944271909999183</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>51876.77707799511</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>76026.31123499284</v>
       </c>
-      <c r="O8" t="n">
-        <v>5</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
       <c r="Q8" t="n">
         <v>5</v>
       </c>
@@ -898,303 +946,204 @@
         <v>5</v>
       </c>
       <c r="T8" t="n">
+        <v>5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>5</v>
+      </c>
+      <c r="W8" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>australian</t>
+          <t>adult</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C9" t="n">
-        <v>-8.997999999999999</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-4.444</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-13.98</v>
-      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>-1.666</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-14.22</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-15.4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.04919349550499526</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.01341640786499847</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.520526224699856</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.01341640786499872</v>
-      </c>
+        <v>67.44</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>1.609968943799849</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.683281572999748</v>
-      </c>
-      <c r="O9" t="n">
-        <v>5</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+        <v>37.2081711455965</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
       <c r="T9" t="n">
         <v>5</v>
       </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C10" t="n">
-        <v>-36760</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-2198000</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-241534000</v>
-      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>-23.06</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-241532000</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-241532000</v>
-      </c>
-      <c r="I10" t="n">
-        <v>313.049516849971</v>
-      </c>
-      <c r="J10" t="n">
-        <v>398020.0999949625</v>
-      </c>
-      <c r="K10" t="n">
-        <v>132970018.3500025</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.3130495168499685</v>
-      </c>
+        <v>-455</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>132974490.4859575</v>
-      </c>
-      <c r="N10" t="n">
-        <v>132974490.4859575</v>
-      </c>
-      <c r="O10" t="n">
-        <v>5</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+        <v>411.4365078599613</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
         <v>5</v>
       </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C11" t="n">
-        <v>-54120000000</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-98420000000000</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-98440000000000</v>
-      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>-638.4</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-98440000000000</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-98440000000000</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3532987404.449668</v>
-      </c>
-      <c r="J11" t="n">
-        <v>44721359549.9947</v>
-      </c>
-      <c r="K11" t="n">
-        <v>89442719099.99268</v>
-      </c>
-      <c r="L11" t="n">
-        <v>25.93838853899757</v>
-      </c>
+        <v>-590116000000000</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>89442719099.99268</v>
-      </c>
-      <c r="N11" t="n">
-        <v>89442719099.99268</v>
-      </c>
-      <c r="O11" t="n">
-        <v>5</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+        <v>1319215260753528</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
         <v>5</v>
       </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C12" t="n">
-        <v>-317664000000</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-12021680000000</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-12021680000000</v>
-      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>-2904</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-12021680000000</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-12021680000000</v>
-      </c>
-      <c r="I12" t="n">
-        <v>705667276611.2937</v>
-      </c>
-      <c r="J12" t="n">
-        <v>26764794542121.93</v>
-      </c>
-      <c r="K12" t="n">
-        <v>26764794542121.93</v>
-      </c>
-      <c r="L12" t="n">
-        <v>165.4690303349845</v>
-      </c>
+        <v>-4.68238e+18</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>26764794542121.93</v>
-      </c>
-      <c r="N12" t="n">
-        <v>26764794542121.93</v>
-      </c>
-      <c r="O12" t="n">
-        <v>5</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+        <v>2.610877691888305e+18</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
       <c r="T12" t="n">
         <v>5</v>
       </c>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>breast-cancer</t>
+          <t>australian</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.338</v>
+        <v>-8.997999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.04052</v>
+        <v>-4.444</v>
       </c>
       <c r="E13" t="n">
-        <v>-142.8</v>
+        <v>-13.98</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.946</v>
+        <v>97.2</v>
       </c>
       <c r="G13" t="n">
-        <v>-141</v>
+        <v>-1.666</v>
       </c>
       <c r="H13" t="n">
-        <v>-139.8</v>
+        <v>-14.22</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02683281572999752</v>
+        <v>-15.4</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0127903088312988</v>
+        <v>0.04919349550499526</v>
       </c>
       <c r="K13" t="n">
-        <v>16.09968943799849</v>
+        <v>0.01341640786499847</v>
       </c>
       <c r="L13" t="n">
-        <v>0.008944271909999134</v>
+        <v>1.520526224699856</v>
       </c>
       <c r="M13" t="n">
-        <v>11.18033988749895</v>
+        <v>73.3430296619931</v>
       </c>
       <c r="N13" t="n">
-        <v>8.497058314499203</v>
+        <v>0.01341640786499872</v>
       </c>
       <c r="O13" t="n">
-        <v>5</v>
+        <v>1.609968943799849</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>2.683281572999748</v>
       </c>
       <c r="Q13" t="n">
         <v>5</v>
@@ -1206,55 +1155,64 @@
         <v>5</v>
       </c>
       <c r="T13" t="n">
+        <v>5</v>
+      </c>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>5</v>
+      </c>
+      <c r="W13" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>-309.2</v>
+        <v>-36760</v>
       </c>
       <c r="D14" t="n">
-        <v>-4108000000</v>
+        <v>-2198000</v>
       </c>
       <c r="E14" t="n">
-        <v>-609600000000000</v>
+        <v>-241534000</v>
       </c>
       <c r="F14" t="n">
-        <v>-13.08</v>
+        <v>-195800</v>
       </c>
       <c r="G14" t="n">
-        <v>-646400000000000</v>
+        <v>-23.06</v>
       </c>
       <c r="H14" t="n">
-        <v>-646400000000000</v>
+        <v>-241532000</v>
       </c>
       <c r="I14" t="n">
-        <v>7.155417527999322</v>
+        <v>-241532000</v>
       </c>
       <c r="J14" t="n">
-        <v>1994572635.929812</v>
+        <v>313.049516849971</v>
       </c>
       <c r="K14" t="n">
-        <v>1090306745828898</v>
+        <v>398020.0999949625</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04472135954999535</v>
+        <v>132970018.3500025</v>
       </c>
       <c r="M14" t="n">
-        <v>1170357979423390</v>
+        <v>30857.7380894971</v>
       </c>
       <c r="N14" t="n">
-        <v>1170357979423390</v>
+        <v>0.3130495168499685</v>
       </c>
       <c r="O14" t="n">
-        <v>5</v>
+        <v>132974490.4859575</v>
       </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>132974490.4859575</v>
       </c>
       <c r="Q14" t="n">
         <v>5</v>
@@ -1266,55 +1224,64 @@
         <v>5</v>
       </c>
       <c r="T14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>5</v>
+      </c>
+      <c r="W14" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>-5860000</v>
+        <v>-54120000000</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.28000936e+29</v>
+        <v>-98420000000000</v>
       </c>
       <c r="E15" t="n">
-        <v>-9.6800000000234e+42</v>
+        <v>-98440000000000</v>
       </c>
       <c r="F15" t="n">
-        <v>-493.4</v>
+        <v>-56680000000</v>
       </c>
       <c r="G15" t="n">
-        <v>-9.6800000000234e+42</v>
+        <v>-638.4</v>
       </c>
       <c r="H15" t="n">
-        <v>-9.6800000000234e+42</v>
+        <v>-98440000000000</v>
       </c>
       <c r="I15" t="n">
-        <v>402492.2359499622</v>
+        <v>-98440000000000</v>
       </c>
       <c r="J15" t="n">
-        <v>7.334297733800242e+29</v>
+        <v>3532987404.449668</v>
       </c>
       <c r="K15" t="n">
-        <v>5.411284505497167e+42</v>
+        <v>44721359549.9947</v>
       </c>
       <c r="L15" t="n">
-        <v>8.049844718999244</v>
+        <v>89442719099.99268</v>
       </c>
       <c r="M15" t="n">
-        <v>5.411284505497167e+42</v>
+        <v>42664177010.69598</v>
       </c>
       <c r="N15" t="n">
-        <v>5.411284505497167e+42</v>
+        <v>25.93838853899757</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>89442719099.99268</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>89442719099.99268</v>
       </c>
       <c r="Q15" t="n">
         <v>5</v>
@@ -1326,55 +1293,64 @@
         <v>5</v>
       </c>
       <c r="T15" t="n">
+        <v>5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>5</v>
+      </c>
+      <c r="W15" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>-5046000000</v>
+        <v>-317664000000</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.9120000000062e+44</v>
+        <v>-12021680000000</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.40000000000002e+58</v>
+        <v>-12021680000000</v>
       </c>
       <c r="F16" t="n">
-        <v>-5344</v>
+        <v>-129120000</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.400000000000179e+58</v>
+        <v>-2904</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.400000000000179e+58</v>
+        <v>-12021680000000</v>
       </c>
       <c r="I16" t="n">
-        <v>102859126.9649904</v>
+        <v>-12021680000000</v>
       </c>
       <c r="J16" t="n">
-        <v>1.068840493231036e+44</v>
+        <v>705667276611.2937</v>
       </c>
       <c r="K16" t="n">
-        <v>5.366563145999485e+58</v>
+        <v>26764794542121.93</v>
       </c>
       <c r="L16" t="n">
-        <v>76.02631123499292</v>
+        <v>26764794542121.93</v>
       </c>
       <c r="M16" t="n">
-        <v>5.366563145999396e+58</v>
+        <v>270497143.2381496</v>
       </c>
       <c r="N16" t="n">
-        <v>5.366563145999396e+58</v>
+        <v>165.4690303349845</v>
       </c>
       <c r="O16" t="n">
-        <v>5</v>
+        <v>26764794542121.93</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>26764794542121.93</v>
       </c>
       <c r="Q16" t="n">
         <v>5</v>
@@ -1386,59 +1362,68 @@
         <v>5</v>
       </c>
       <c r="T16" t="n">
+        <v>5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>5</v>
+      </c>
+      <c r="W16" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>cardio</t>
+          <t>breast-cancer</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.5312</v>
+        <v>-1.338</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.5917999999999999</v>
+        <v>-0.04052</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.6644</v>
+        <v>-142.8</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.114</v>
+        <v>-132.2</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.6256</v>
+        <v>-1.946</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.6487999999999999</v>
+        <v>-141</v>
       </c>
       <c r="I17" t="n">
-        <v>0.010733126291999</v>
+        <v>-139.8</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03085773808949714</v>
+        <v>0.02683281572999752</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02549117494349758</v>
+        <v>0.0127903088312988</v>
       </c>
       <c r="L17" t="n">
-        <v>0.008944271909999104</v>
+        <v>16.09968943799849</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02370232056149775</v>
+        <v>6.260990336999409</v>
       </c>
       <c r="N17" t="n">
-        <v>0.02191346617949791</v>
+        <v>0.008944271909999134</v>
       </c>
       <c r="O17" t="n">
-        <v>5</v>
+        <v>11.18033988749895</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>8.497058314499203</v>
       </c>
       <c r="Q17" t="n">
         <v>5</v>
@@ -1450,55 +1435,64 @@
         <v>5</v>
       </c>
       <c r="T17" t="n">
+        <v>5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>5</v>
+      </c>
+      <c r="W17" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>-26340000</v>
+        <v>-309.2</v>
       </c>
       <c r="D18" t="n">
-        <v>-12456</v>
+        <v>-4108000000</v>
       </c>
       <c r="E18" t="n">
-        <v>-2.676e+17</v>
+        <v>-609600000000000</v>
       </c>
       <c r="F18" t="n">
-        <v>-40.1</v>
+        <v>-3200000000000</v>
       </c>
       <c r="G18" t="n">
-        <v>-12458</v>
+        <v>-13.08</v>
       </c>
       <c r="H18" t="n">
-        <v>-15424</v>
+        <v>-646400000000000</v>
       </c>
       <c r="I18" t="n">
-        <v>3041052.449399714</v>
+        <v>-646400000000000</v>
       </c>
       <c r="J18" t="n">
-        <v>5241.343339259507</v>
+        <v>7.155417527999322</v>
       </c>
       <c r="K18" t="n">
-        <v>9.25732142684913e+16</v>
+        <v>1994572635.929812</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4472135954999586</v>
+        <v>1090306745828898</v>
       </c>
       <c r="M18" t="n">
-        <v>5236.871203304508</v>
+        <v>4360332556124.59</v>
       </c>
       <c r="N18" t="n">
-        <v>5089.290716789521</v>
+        <v>0.04472135954999535</v>
       </c>
       <c r="O18" t="n">
-        <v>5</v>
+        <v>1170357979423390</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
+        <v>1170357979423390</v>
       </c>
       <c r="Q18" t="n">
         <v>5</v>
@@ -1510,55 +1504,64 @@
         <v>5</v>
       </c>
       <c r="T18" t="n">
+        <v>5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>5</v>
+      </c>
+      <c r="W18" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>-105480000000000</v>
+        <v>-5860000</v>
       </c>
       <c r="D19" t="n">
-        <v>-16360000000</v>
+        <v>-3.28000936e+29</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.957999999999999e+30</v>
+        <v>-9.6800000000234e+42</v>
       </c>
       <c r="F19" t="n">
-        <v>-5086</v>
+        <v>-2.30856e+27</v>
       </c>
       <c r="G19" t="n">
-        <v>-16440000000</v>
+        <v>-493.4</v>
       </c>
       <c r="H19" t="n">
-        <v>-676800000</v>
+        <v>-9.6800000000234e+42</v>
       </c>
       <c r="I19" t="n">
-        <v>75757983077692.88</v>
+        <v>-9.6800000000234e+42</v>
       </c>
       <c r="J19" t="n">
-        <v>8362894235.849214</v>
+        <v>402492.2359499622</v>
       </c>
       <c r="K19" t="n">
-        <v>1.457916321329862e+30</v>
+        <v>7.334297733800242e+29</v>
       </c>
       <c r="L19" t="n">
-        <v>35.7770876399967</v>
+        <v>5.411284505497167e+42</v>
       </c>
       <c r="M19" t="n">
-        <v>8407615595.399209</v>
+        <v>5.138171162777667e+27</v>
       </c>
       <c r="N19" t="n">
-        <v>1477593719.531861</v>
+        <v>8.049844718999244</v>
       </c>
       <c r="O19" t="n">
-        <v>5</v>
+        <v>5.411284505497167e+42</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>5.411284505497167e+42</v>
       </c>
       <c r="Q19" t="n">
         <v>5</v>
@@ -1570,55 +1573,64 @@
         <v>5</v>
       </c>
       <c r="T19" t="n">
+        <v>5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>5</v>
+      </c>
+      <c r="W19" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.0986e+20</v>
+        <v>-5046000000</v>
       </c>
       <c r="D20" t="n">
-        <v>-6697600000000</v>
+        <v>-1.9120000000062e+44</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.584e+44</v>
+        <v>-2.40000000000002e+58</v>
       </c>
       <c r="F20" t="n">
-        <v>-1050000</v>
+        <v>-1.393312e+41</v>
       </c>
       <c r="G20" t="n">
-        <v>-9420000000000</v>
+        <v>-5344</v>
       </c>
       <c r="H20" t="n">
-        <v>-23180000000000</v>
+        <v>-2.400000000000179e+58</v>
       </c>
       <c r="I20" t="n">
-        <v>3.83262051343464e+19</v>
+        <v>-2.400000000000179e+58</v>
       </c>
       <c r="J20" t="n">
-        <v>14312176696785.15</v>
+        <v>102859126.9649904</v>
       </c>
       <c r="K20" t="n">
-        <v>1.475804865149862e+43</v>
+        <v>1.068840493231036e+44</v>
       </c>
       <c r="L20" t="n">
-        <v>22360.67977499791</v>
+        <v>5.366563145999485e+58</v>
       </c>
       <c r="M20" t="n">
-        <v>12790308831298.8</v>
+        <v>7.75217934983447e+40</v>
       </c>
       <c r="N20" t="n">
-        <v>31372033724322.05</v>
+        <v>76.02631123499292</v>
       </c>
       <c r="O20" t="n">
-        <v>5</v>
+        <v>5.366563145999396e+58</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>5.366563145999396e+58</v>
       </c>
       <c r="Q20" t="n">
         <v>5</v>
@@ -1630,59 +1642,68 @@
         <v>5</v>
       </c>
       <c r="T20" t="n">
+        <v>5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>5</v>
+      </c>
+      <c r="W20" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>credit</t>
+          <t>cardio</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.3694</v>
+        <v>-0.5312</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.4524</v>
+        <v>-0.5917999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.586</v>
+        <v>-0.6644</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.7594000000000001</v>
+        <v>2.718</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.5776</v>
+        <v>-1.114</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.593</v>
+        <v>-0.6256</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06126826258349419</v>
+        <v>-0.6487999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0053665631459995</v>
+        <v>0.010733126291999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.03130495168499707</v>
+        <v>0.03085773808949714</v>
       </c>
       <c r="L21" t="n">
-        <v>0.007602631123499248</v>
+        <v>0.02549117494349758</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0147580486514986</v>
+        <v>0.5098234988699519</v>
       </c>
       <c r="N21" t="n">
-        <v>0.03354101966249686</v>
+        <v>0.008944271909999104</v>
       </c>
       <c r="O21" t="n">
-        <v>5</v>
+        <v>0.02370232056149775</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>0.02191346617949791</v>
       </c>
       <c r="Q21" t="n">
         <v>5</v>
@@ -1694,55 +1715,64 @@
         <v>5</v>
       </c>
       <c r="T21" t="n">
+        <v>5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>5</v>
+      </c>
+      <c r="W21" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>-5040</v>
+        <v>-26340000</v>
       </c>
       <c r="D22" t="n">
-        <v>-40114</v>
+        <v>-12456</v>
       </c>
       <c r="E22" t="n">
-        <v>-40126</v>
+        <v>-2.676e+17</v>
       </c>
       <c r="F22" t="n">
-        <v>-24.9</v>
+        <v>-1670000000000000</v>
       </c>
       <c r="G22" t="n">
-        <v>-40114</v>
+        <v>-40.1</v>
       </c>
       <c r="H22" t="n">
-        <v>-40114</v>
+        <v>-12458</v>
       </c>
       <c r="I22" t="n">
-        <v>2168.985938174796</v>
+        <v>-15424</v>
       </c>
       <c r="J22" t="n">
-        <v>16962.81167731341</v>
+        <v>3041052.449399714</v>
       </c>
       <c r="K22" t="n">
-        <v>16935.97886158341</v>
+        <v>5241.343339259507</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4472135954999577</v>
+        <v>9.25732142684913e+16</v>
       </c>
       <c r="M22" t="n">
-        <v>16962.81167731341</v>
+        <v>44721359549995.77</v>
       </c>
       <c r="N22" t="n">
-        <v>16962.81167731341</v>
+        <v>0.4472135954999586</v>
       </c>
       <c r="O22" t="n">
-        <v>5</v>
+        <v>5236.871203304508</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
+        <v>5089.290716789521</v>
       </c>
       <c r="Q22" t="n">
         <v>5</v>
@@ -1754,55 +1784,64 @@
         <v>5</v>
       </c>
       <c r="T22" t="n">
+        <v>5</v>
+      </c>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>5</v>
+      </c>
+      <c r="W22" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C23" t="n">
-        <v>-170340</v>
+        <v>-105480000000000</v>
       </c>
       <c r="D23" t="n">
-        <v>-5141000</v>
+        <v>-16360000000</v>
       </c>
       <c r="E23" t="n">
-        <v>-5136000</v>
+        <v>-3.957999999999999e+30</v>
       </c>
       <c r="F23" t="n">
-        <v>-9.709999999999999</v>
+        <v>-2.11226e+30</v>
       </c>
       <c r="G23" t="n">
-        <v>-5141000</v>
+        <v>-5086</v>
       </c>
       <c r="H23" t="n">
-        <v>-5141000</v>
+        <v>-16440000000</v>
       </c>
       <c r="I23" t="n">
-        <v>57377.5043026446</v>
+        <v>-676800000</v>
       </c>
       <c r="J23" t="n">
-        <v>2613963.465697254</v>
+        <v>75757983077692.88</v>
       </c>
       <c r="K23" t="n">
-        <v>2625143.805584753</v>
+        <v>8362894235.849214</v>
       </c>
       <c r="L23" t="n">
-        <v>0.6484597134749384</v>
+        <v>1.457916321329862e+30</v>
       </c>
       <c r="M23" t="n">
-        <v>2613963.465697254</v>
+        <v>1.180062514445739e+30</v>
       </c>
       <c r="N23" t="n">
-        <v>2613963.465697254</v>
+        <v>35.7770876399967</v>
       </c>
       <c r="O23" t="n">
-        <v>5</v>
+        <v>8407615595.399209</v>
       </c>
       <c r="P23" t="n">
-        <v>5</v>
+        <v>1477593719.531861</v>
       </c>
       <c r="Q23" t="n">
         <v>5</v>
@@ -1814,55 +1853,64 @@
         <v>5</v>
       </c>
       <c r="T23" t="n">
+        <v>5</v>
+      </c>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>5</v>
+      </c>
+      <c r="W23" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>-58224000</v>
+        <v>-1.0986e+20</v>
       </c>
       <c r="D24" t="n">
-        <v>-433420000</v>
+        <v>-6697600000000</v>
       </c>
       <c r="E24" t="n">
-        <v>-433420000</v>
+        <v>-1.584e+44</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.601999999999999</v>
+        <v>-1.056e+44</v>
       </c>
       <c r="G24" t="n">
-        <v>-433420000</v>
+        <v>-1050000</v>
       </c>
       <c r="H24" t="n">
-        <v>-433420000</v>
+        <v>-9420000000000</v>
       </c>
       <c r="I24" t="n">
-        <v>31698499.64903702</v>
+        <v>-23180000000000</v>
       </c>
       <c r="J24" t="n">
-        <v>236084057.0644278</v>
+        <v>3.83262051343464e+19</v>
       </c>
       <c r="K24" t="n">
-        <v>236084057.0644278</v>
+        <v>14312176696785.15</v>
       </c>
       <c r="L24" t="n">
-        <v>0.06260990336999356</v>
+        <v>1.475804865149862e+43</v>
       </c>
       <c r="M24" t="n">
-        <v>236084057.0644278</v>
+        <v>5.903219460599445e+43</v>
       </c>
       <c r="N24" t="n">
-        <v>236084057.0644278</v>
+        <v>22360.67977499791</v>
       </c>
       <c r="O24" t="n">
-        <v>5</v>
+        <v>12790308831298.8</v>
       </c>
       <c r="P24" t="n">
-        <v>5</v>
+        <v>31372033724322.05</v>
       </c>
       <c r="Q24" t="n">
         <v>5</v>
@@ -1874,59 +1922,68 @@
         <v>5</v>
       </c>
       <c r="T24" t="n">
+        <v>5</v>
+      </c>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>5</v>
+      </c>
+      <c r="W24" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>glass</t>
+          <t>credit</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.8644000000000001</v>
+        <v>-0.3694</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1714</v>
+        <v>-0.4524</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.0208</v>
+        <v>-0.586</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.606</v>
+        <v>53.02080000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.9975999999999999</v>
+        <v>-0.7594000000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.9676</v>
+        <v>-0.5776</v>
       </c>
       <c r="I25" t="n">
-        <v>0.08139287438099242</v>
+        <v>-0.593</v>
       </c>
       <c r="J25" t="n">
-        <v>0.007602631123499274</v>
+        <v>0.06126826258349419</v>
       </c>
       <c r="K25" t="n">
-        <v>0.06663482572949365</v>
+        <v>0.0053665631459995</v>
       </c>
       <c r="L25" t="n">
-        <v>0.05813776741499448</v>
+        <v>0.03130495168499707</v>
       </c>
       <c r="M25" t="n">
-        <v>0.06842368011149363</v>
+        <v>29.46958708906523</v>
       </c>
       <c r="N25" t="n">
-        <v>0.07960401999899255</v>
+        <v>0.007602631123499248</v>
       </c>
       <c r="O25" t="n">
-        <v>5</v>
+        <v>0.0147580486514986</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>0.03354101966249686</v>
       </c>
       <c r="Q25" t="n">
         <v>5</v>
@@ -1938,55 +1995,64 @@
         <v>5</v>
       </c>
       <c r="T25" t="n">
+        <v>5</v>
+      </c>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>5</v>
+      </c>
+      <c r="W25" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>-48.62</v>
+        <v>-5040</v>
       </c>
       <c r="D26" t="n">
-        <v>-13.444</v>
+        <v>-40114</v>
       </c>
       <c r="E26" t="n">
-        <v>-72.72</v>
+        <v>-40126</v>
       </c>
       <c r="F26" t="n">
-        <v>-8.208</v>
+        <v>-3800</v>
       </c>
       <c r="G26" t="n">
-        <v>-839.6200000000001</v>
+        <v>-24.9</v>
       </c>
       <c r="H26" t="n">
-        <v>-1151.62</v>
+        <v>-40114</v>
       </c>
       <c r="I26" t="n">
-        <v>3.175216528049699</v>
+        <v>-40114</v>
       </c>
       <c r="J26" t="n">
-        <v>36.14380278830659</v>
+        <v>2168.985938174796</v>
       </c>
       <c r="K26" t="n">
-        <v>23.07622152779783</v>
+        <v>16962.81167731341</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1386362146049869</v>
+        <v>16935.97886158341</v>
       </c>
       <c r="M26" t="n">
-        <v>425.70262155641</v>
+        <v>760.2631123499285</v>
       </c>
       <c r="N26" t="n">
-        <v>600.1159238013935</v>
+        <v>0.4472135954999577</v>
       </c>
       <c r="O26" t="n">
-        <v>5</v>
+        <v>16962.81167731341</v>
       </c>
       <c r="P26" t="n">
-        <v>5</v>
+        <v>16962.81167731341</v>
       </c>
       <c r="Q26" t="n">
         <v>5</v>
@@ -1998,55 +2064,64 @@
         <v>5</v>
       </c>
       <c r="T26" t="n">
+        <v>5</v>
+      </c>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>5</v>
+      </c>
+      <c r="W26" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>-12992</v>
+        <v>-170340</v>
       </c>
       <c r="D27" t="n">
-        <v>-93760</v>
+        <v>-5141000</v>
       </c>
       <c r="E27" t="n">
-        <v>-94000</v>
+        <v>-5136000</v>
       </c>
       <c r="F27" t="n">
-        <v>-52.08000000000001</v>
+        <v>-1780</v>
       </c>
       <c r="G27" t="n">
-        <v>-93760</v>
+        <v>-9.709999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>-93760</v>
+        <v>-5141000</v>
       </c>
       <c r="I27" t="n">
-        <v>21247.117922203</v>
+        <v>-5141000</v>
       </c>
       <c r="J27" t="n">
-        <v>165603.1944136344</v>
+        <v>57377.5043026446</v>
       </c>
       <c r="K27" t="n">
-        <v>165469.0303349844</v>
+        <v>2613963.465697254</v>
       </c>
       <c r="L27" t="n">
-        <v>6.439875775199397</v>
+        <v>2625143.805584753</v>
       </c>
       <c r="M27" t="n">
-        <v>165603.1944136344</v>
+        <v>1319.280106724876</v>
       </c>
       <c r="N27" t="n">
-        <v>165603.1944136344</v>
+        <v>0.6484597134749384</v>
       </c>
       <c r="O27" t="n">
-        <v>5</v>
+        <v>2613963.465697254</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
+        <v>2613963.465697254</v>
       </c>
       <c r="Q27" t="n">
         <v>5</v>
@@ -2058,55 +2133,64 @@
         <v>5</v>
       </c>
       <c r="T27" t="n">
+        <v>5</v>
+      </c>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>5</v>
+      </c>
+      <c r="W27" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C28" t="n">
-        <v>-44476000</v>
+        <v>-58224000</v>
       </c>
       <c r="D28" t="n">
-        <v>-1181860000</v>
+        <v>-433420000</v>
       </c>
       <c r="E28" t="n">
-        <v>-700005860000</v>
+        <v>-433420000</v>
       </c>
       <c r="F28" t="n">
-        <v>-641.8</v>
+        <v>-23200</v>
       </c>
       <c r="G28" t="n">
-        <v>-700005860000</v>
+        <v>-4.601999999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>-700005860000</v>
+        <v>-433420000</v>
       </c>
       <c r="I28" t="n">
-        <v>22190738.60870791</v>
+        <v>-433420000</v>
       </c>
       <c r="J28" t="n">
-        <v>644300627.0367894</v>
+        <v>31698499.64903702</v>
       </c>
       <c r="K28" t="n">
-        <v>391298792704.1151</v>
+        <v>236084057.0644278</v>
       </c>
       <c r="L28" t="n">
-        <v>38.46036921299638</v>
+        <v>236084057.0644278</v>
       </c>
       <c r="M28" t="n">
-        <v>391298792704.1151</v>
+        <v>24373.14095474771</v>
       </c>
       <c r="N28" t="n">
-        <v>391298792704.1151</v>
+        <v>0.06260990336999356</v>
       </c>
       <c r="O28" t="n">
-        <v>5</v>
+        <v>236084057.0644278</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>236084057.0644278</v>
       </c>
       <c r="Q28" t="n">
         <v>5</v>
@@ -2118,59 +2202,68 @@
         <v>5</v>
       </c>
       <c r="T28" t="n">
+        <v>5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>5</v>
+      </c>
+      <c r="W28" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>heart</t>
+          <t>glass</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.18</v>
+        <v>-0.8644000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>-8.596</v>
+        <v>-0.1714</v>
       </c>
       <c r="E29" t="n">
-        <v>-2.216</v>
+        <v>-1.0208</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.842</v>
+        <v>5.01</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.73</v>
+        <v>-1.606</v>
       </c>
       <c r="H29" t="n">
-        <v>2.016</v>
+        <v>-0.9975999999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>0.008944271909999168</v>
+        <v>-0.9676</v>
       </c>
       <c r="J29" t="n">
-        <v>9.673230070664088</v>
+        <v>0.08139287438099242</v>
       </c>
       <c r="K29" t="n">
-        <v>2.625143805584753</v>
+        <v>0.007602631123499274</v>
       </c>
       <c r="L29" t="n">
-        <v>0.1520526224699857</v>
+        <v>0.06663482572949365</v>
       </c>
       <c r="M29" t="n">
-        <v>3.443544685349676</v>
+        <v>0.3130495168499704</v>
       </c>
       <c r="N29" t="n">
-        <v>13.07205339646377</v>
+        <v>0.05813776741499448</v>
       </c>
       <c r="O29" t="n">
-        <v>5</v>
+        <v>0.06842368011149363</v>
       </c>
       <c r="P29" t="n">
-        <v>5</v>
+        <v>0.07960401999899255</v>
       </c>
       <c r="Q29" t="n">
         <v>5</v>
@@ -2182,55 +2275,64 @@
         <v>5</v>
       </c>
       <c r="T29" t="n">
+        <v>5</v>
+      </c>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>5</v>
+      </c>
+      <c r="W29" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="1" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>-24760</v>
+        <v>-48.62</v>
       </c>
       <c r="D30" t="n">
-        <v>-20800</v>
+        <v>-13.444</v>
       </c>
       <c r="E30" t="n">
-        <v>-19700</v>
+        <v>-72.72</v>
       </c>
       <c r="F30" t="n">
-        <v>-149.2</v>
+        <v>-915.2</v>
       </c>
       <c r="G30" t="n">
-        <v>-20800</v>
+        <v>-8.208</v>
       </c>
       <c r="H30" t="n">
-        <v>-25200</v>
+        <v>-839.6200000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>3219.937887599697</v>
+        <v>-1151.62</v>
       </c>
       <c r="J30" t="n">
-        <v>2683.281572999748</v>
+        <v>3.175216528049699</v>
       </c>
       <c r="K30" t="n">
-        <v>1341.640786499874</v>
+        <v>36.14380278830659</v>
       </c>
       <c r="L30" t="n">
-        <v>2.683281572999747</v>
+        <v>23.07622152779783</v>
       </c>
       <c r="M30" t="n">
-        <v>2683.281572999748</v>
+        <v>256.7006038169759</v>
       </c>
       <c r="N30" t="n">
-        <v>3354.101966249685</v>
+        <v>0.1386362146049869</v>
       </c>
       <c r="O30" t="n">
-        <v>5</v>
+        <v>425.70262155641</v>
       </c>
       <c r="P30" t="n">
-        <v>5</v>
+        <v>600.1159238013935</v>
       </c>
       <c r="Q30" t="n">
         <v>5</v>
@@ -2242,55 +2344,64 @@
         <v>5</v>
       </c>
       <c r="T30" t="n">
+        <v>5</v>
+      </c>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>5</v>
+      </c>
+      <c r="W30" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="1" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>-125800000</v>
+        <v>-12992</v>
       </c>
       <c r="D31" t="n">
-        <v>-486000000</v>
+        <v>-93760</v>
       </c>
       <c r="E31" t="n">
-        <v>-14540000000</v>
+        <v>-94000</v>
       </c>
       <c r="F31" t="n">
-        <v>-1590000</v>
+        <v>-9176</v>
       </c>
       <c r="G31" t="n">
-        <v>-14460000000</v>
+        <v>-52.08000000000001</v>
       </c>
       <c r="H31" t="n">
-        <v>-14460000000</v>
+        <v>-93760</v>
       </c>
       <c r="I31" t="n">
-        <v>4919349.550499538</v>
+        <v>-93760</v>
       </c>
       <c r="J31" t="n">
-        <v>210190389.8849803</v>
+        <v>21247.117922203</v>
       </c>
       <c r="K31" t="n">
-        <v>357770876.3999662</v>
+        <v>165603.1944136344</v>
       </c>
       <c r="L31" t="n">
-        <v>44721.35954999577</v>
+        <v>165469.0303349844</v>
       </c>
       <c r="M31" t="n">
-        <v>313049516.8499707</v>
+        <v>1019.646997739904</v>
       </c>
       <c r="N31" t="n">
-        <v>313049516.8499707</v>
+        <v>6.439875775199397</v>
       </c>
       <c r="O31" t="n">
-        <v>5</v>
+        <v>165603.1944136344</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>165603.1944136344</v>
       </c>
       <c r="Q31" t="n">
         <v>5</v>
@@ -2302,55 +2413,64 @@
         <v>5</v>
       </c>
       <c r="T31" t="n">
+        <v>5</v>
+      </c>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>5</v>
+      </c>
+      <c r="W31" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>-40280000000</v>
+        <v>-44476000</v>
       </c>
       <c r="D32" t="n">
-        <v>-17900000000000</v>
+        <v>-1181860000</v>
       </c>
       <c r="E32" t="n">
-        <v>-348800000000000</v>
+        <v>-700005860000</v>
       </c>
       <c r="F32" t="n">
-        <v>-5890000000</v>
+        <v>-42228000</v>
       </c>
       <c r="G32" t="n">
-        <v>-347200000000000</v>
+        <v>-641.8</v>
       </c>
       <c r="H32" t="n">
-        <v>-347200000000000</v>
+        <v>-700005860000</v>
       </c>
       <c r="I32" t="n">
-        <v>80341922431.56744</v>
+        <v>-700005860000</v>
       </c>
       <c r="J32" t="n">
-        <v>7826237921249.264</v>
+        <v>22190738.60870791</v>
       </c>
       <c r="K32" t="n">
-        <v>727392913080681.5</v>
+        <v>644300627.0367894</v>
       </c>
       <c r="L32" t="n">
-        <v>849705831.4499201</v>
+        <v>391298792704.1151</v>
       </c>
       <c r="M32" t="n">
-        <v>728287340271681.5</v>
+        <v>22968890.26487784</v>
       </c>
       <c r="N32" t="n">
-        <v>728287340271681.5</v>
+        <v>38.46036921299638</v>
       </c>
       <c r="O32" t="n">
-        <v>5</v>
+        <v>391298792704.1151</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>391298792704.1151</v>
       </c>
       <c r="Q32" t="n">
         <v>5</v>
@@ -2362,59 +2482,68 @@
         <v>5</v>
       </c>
       <c r="T32" t="n">
+        <v>5</v>
+      </c>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>5</v>
+      </c>
+      <c r="W32" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ionosphere</t>
+          <t>heart</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.08024000000000001</v>
+        <v>-0.18</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1108</v>
+        <v>-8.596</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.07539999999999999</v>
+        <v>-2.216</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.1992</v>
+        <v>244.2</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.1214</v>
+        <v>-3.842</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.1466</v>
+        <v>-2.73</v>
       </c>
       <c r="I33" t="n">
-        <v>0.001878297101099818</v>
+        <v>2.016</v>
       </c>
       <c r="J33" t="n">
-        <v>0.008497058314499198</v>
+        <v>0.008944271909999168</v>
       </c>
       <c r="K33" t="n">
-        <v>0.04449775275224581</v>
+        <v>9.673230070664088</v>
       </c>
       <c r="L33" t="n">
-        <v>0.002683281572999747</v>
+        <v>2.625143805584753</v>
       </c>
       <c r="M33" t="n">
-        <v>0.03443544685349675</v>
+        <v>421.9460273542103</v>
       </c>
       <c r="N33" t="n">
-        <v>0.03711872842649649</v>
+        <v>0.1520526224699857</v>
       </c>
       <c r="O33" t="n">
-        <v>5</v>
+        <v>3.443544685349676</v>
       </c>
       <c r="P33" t="n">
-        <v>5</v>
+        <v>13.07205339646377</v>
       </c>
       <c r="Q33" t="n">
         <v>5</v>
@@ -2426,55 +2555,64 @@
         <v>5</v>
       </c>
       <c r="T33" t="n">
+        <v>5</v>
+      </c>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>5</v>
+      </c>
+      <c r="W33" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C34" t="n">
-        <v>-4200.8</v>
+        <v>-24760</v>
       </c>
       <c r="D34" t="n">
-        <v>-370.2</v>
+        <v>-20800</v>
       </c>
       <c r="E34" t="n">
-        <v>-23864</v>
+        <v>-19700</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.3448000000000001</v>
+        <v>-20800</v>
       </c>
       <c r="G34" t="n">
-        <v>-23864</v>
+        <v>-149.2</v>
       </c>
       <c r="H34" t="n">
-        <v>-23864</v>
+        <v>-20800</v>
       </c>
       <c r="I34" t="n">
-        <v>7546.28221046629</v>
+        <v>-25200</v>
       </c>
       <c r="J34" t="n">
-        <v>4.919349550499541</v>
+        <v>3219.937887599697</v>
       </c>
       <c r="K34" t="n">
-        <v>43120.33487810595</v>
+        <v>2683.281572999748</v>
       </c>
       <c r="L34" t="n">
-        <v>0.03085773808949712</v>
+        <v>1341.640786499874</v>
       </c>
       <c r="M34" t="n">
-        <v>43120.33487810595</v>
+        <v>2683.281572999748</v>
       </c>
       <c r="N34" t="n">
-        <v>43120.33487810595</v>
+        <v>2.683281572999747</v>
       </c>
       <c r="O34" t="n">
-        <v>5</v>
+        <v>2683.281572999748</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>3354.101966249685</v>
       </c>
       <c r="Q34" t="n">
         <v>5</v>
@@ -2486,55 +2624,64 @@
         <v>5</v>
       </c>
       <c r="T34" t="n">
+        <v>5</v>
+      </c>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>5</v>
+      </c>
+      <c r="W34" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C35" t="n">
-        <v>293600000</v>
+        <v>-125800000</v>
       </c>
       <c r="D35" t="n">
-        <v>-430560000</v>
+        <v>-486000000</v>
       </c>
       <c r="E35" t="n">
-        <v>-69358000000</v>
+        <v>-14540000000</v>
       </c>
       <c r="F35" t="n">
-        <v>-70.47200000000001</v>
+        <v>-486000000</v>
       </c>
       <c r="G35" t="n">
-        <v>-69360000000</v>
+        <v>-1590000</v>
       </c>
       <c r="H35" t="n">
-        <v>-69360000000</v>
+        <v>-14460000000</v>
       </c>
       <c r="I35" t="n">
-        <v>45615786.74099571</v>
+        <v>-14460000000</v>
       </c>
       <c r="J35" t="n">
-        <v>231298871.5925782</v>
+        <v>4919349.550499538</v>
       </c>
       <c r="K35" t="n">
-        <v>37212643281.55151</v>
+        <v>210190389.8849803</v>
       </c>
       <c r="L35" t="n">
-        <v>148.434664482391</v>
+        <v>357770876.3999662</v>
       </c>
       <c r="M35" t="n">
-        <v>37208171145.5965</v>
+        <v>210190389.8849803</v>
       </c>
       <c r="N35" t="n">
-        <v>37208171145.5965</v>
+        <v>44721.35954999577</v>
       </c>
       <c r="O35" t="n">
-        <v>5</v>
+        <v>313049516.8499707</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
+        <v>313049516.8499707</v>
       </c>
       <c r="Q35" t="n">
         <v>5</v>
@@ -2546,55 +2693,64 @@
         <v>5</v>
       </c>
       <c r="T35" t="n">
+        <v>5</v>
+      </c>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>5</v>
+      </c>
+      <c r="W35" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C36" t="n">
-        <v>-2.3600332e+19</v>
+        <v>-40280000000</v>
       </c>
       <c r="D36" t="n">
-        <v>-22088000000000</v>
+        <v>-17900000000000</v>
       </c>
       <c r="E36" t="n">
-        <v>-6.8640966e+21</v>
+        <v>-348800000000000</v>
       </c>
       <c r="F36" t="n">
-        <v>-52740</v>
+        <v>-17900000000000</v>
       </c>
       <c r="G36" t="n">
-        <v>-6.8640966e+21</v>
+        <v>-5890000000</v>
       </c>
       <c r="H36" t="n">
-        <v>-6.8640966e+21</v>
+        <v>-347200000000000</v>
       </c>
       <c r="I36" t="n">
-        <v>1.319205869268023e+19</v>
+        <v>-347200000000000</v>
       </c>
       <c r="J36" t="n">
-        <v>8076677534729.24</v>
+        <v>80341922431.56744</v>
       </c>
       <c r="K36" t="n">
-        <v>3.836876645223013e+21</v>
+        <v>7826237921249.264</v>
       </c>
       <c r="L36" t="n">
-        <v>4606.300033649568</v>
+        <v>727392913080681.5</v>
       </c>
       <c r="M36" t="n">
-        <v>3.836876645223013e+21</v>
+        <v>7826237921249.264</v>
       </c>
       <c r="N36" t="n">
-        <v>3.836876645223013e+21</v>
+        <v>849705831.4499201</v>
       </c>
       <c r="O36" t="n">
-        <v>5</v>
+        <v>728287340271681.5</v>
       </c>
       <c r="P36" t="n">
-        <v>5</v>
+        <v>728287340271681.5</v>
       </c>
       <c r="Q36" t="n">
         <v>5</v>
@@ -2606,59 +2762,68 @@
         <v>5</v>
       </c>
       <c r="T36" t="n">
+        <v>5</v>
+      </c>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>5</v>
+      </c>
+      <c r="W36" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>letter</t>
+          <t>ionosphere</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.286</v>
+        <v>-0.08024000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.3838</v>
+        <v>-0.1108</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.3844</v>
+        <v>-0.07539999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.7398</v>
+        <v>2.13428</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.3786</v>
+        <v>-0.1992</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.3866</v>
+        <v>-0.1214</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01341640786499874</v>
+        <v>-0.1466</v>
       </c>
       <c r="J37" t="n">
-        <v>0.01296919426949875</v>
+        <v>0.001878297101099818</v>
       </c>
       <c r="K37" t="n">
-        <v>0.02325510696599783</v>
+        <v>0.008497058314499198</v>
       </c>
       <c r="L37" t="n">
-        <v>0.01520526224699856</v>
+        <v>0.04449775275224581</v>
       </c>
       <c r="M37" t="n">
-        <v>0.01252198067399884</v>
+        <v>1.153184977356192</v>
       </c>
       <c r="N37" t="n">
-        <v>0.02370232056149775</v>
+        <v>0.002683281572999747</v>
       </c>
       <c r="O37" t="n">
-        <v>5</v>
+        <v>0.03443544685349675</v>
       </c>
       <c r="P37" t="n">
-        <v>5</v>
+        <v>0.03711872842649649</v>
       </c>
       <c r="Q37" t="n">
         <v>5</v>
@@ -2670,6 +2835,15 @@
         <v>5</v>
       </c>
       <c r="T37" t="n">
+        <v>5</v>
+      </c>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>5</v>
+      </c>
+      <c r="W37" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2679,46 +2853,46 @@
         <v>10</v>
       </c>
       <c r="C38" t="n">
-        <v>-218467400</v>
+        <v>-4200.8</v>
       </c>
       <c r="D38" t="n">
-        <v>-18880</v>
+        <v>-370.2</v>
       </c>
       <c r="E38" t="n">
-        <v>-2736606000</v>
+        <v>-23864</v>
       </c>
       <c r="F38" t="n">
-        <v>-311</v>
+        <v>-370.2</v>
       </c>
       <c r="G38" t="n">
-        <v>-18880</v>
+        <v>-0.3448000000000001</v>
       </c>
       <c r="H38" t="n">
-        <v>-33500</v>
+        <v>-23864</v>
       </c>
       <c r="I38" t="n">
-        <v>121938600.589805</v>
+        <v>-23864</v>
       </c>
       <c r="J38" t="n">
-        <v>6529.318494299387</v>
+        <v>7546.28221046629</v>
       </c>
       <c r="K38" t="n">
-        <v>1528115439.415491</v>
+        <v>4.919349550499541</v>
       </c>
       <c r="L38" t="n">
-        <v>15.65247584249853</v>
+        <v>43120.33487810595</v>
       </c>
       <c r="M38" t="n">
-        <v>6529.318494299387</v>
+        <v>4.919349550499541</v>
       </c>
       <c r="N38" t="n">
-        <v>12745.5874717488</v>
+        <v>0.03085773808949712</v>
       </c>
       <c r="O38" t="n">
-        <v>5</v>
+        <v>43120.33487810595</v>
       </c>
       <c r="P38" t="n">
-        <v>5</v>
+        <v>43120.33487810595</v>
       </c>
       <c r="Q38" t="n">
         <v>5</v>
@@ -2730,55 +2904,64 @@
         <v>5</v>
       </c>
       <c r="T38" t="n">
+        <v>5</v>
+      </c>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>5</v>
+      </c>
+      <c r="W38" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
       <c r="B39" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C39" t="n">
-        <v>-2363000000000000</v>
+        <v>293600000</v>
       </c>
       <c r="D39" t="n">
-        <v>-25342200000</v>
+        <v>-430560000</v>
       </c>
       <c r="E39" t="n">
-        <v>-2.3221e+17</v>
+        <v>-69358000000</v>
       </c>
       <c r="F39" t="n">
-        <v>-621800</v>
+        <v>-430560000</v>
       </c>
       <c r="G39" t="n">
-        <v>-25342200000</v>
+        <v>-70.47200000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>-27689200000</v>
+        <v>-69360000000</v>
       </c>
       <c r="I39" t="n">
-        <v>932440346617412.4</v>
+        <v>-69360000000</v>
       </c>
       <c r="J39" t="n">
-        <v>13992866189.59818</v>
+        <v>45615786.74099571</v>
       </c>
       <c r="K39" t="n">
-        <v>1.269863004422131e+17</v>
+        <v>231298871.5925782</v>
       </c>
       <c r="L39" t="n">
-        <v>85417.79674049196</v>
+        <v>37212643281.55151</v>
       </c>
       <c r="M39" t="n">
-        <v>13992866189.59818</v>
+        <v>231298871.5925782</v>
       </c>
       <c r="N39" t="n">
-        <v>15229411781.15557</v>
+        <v>148.434664482391</v>
       </c>
       <c r="O39" t="n">
-        <v>5</v>
+        <v>37208171145.5965</v>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
+        <v>37208171145.5965</v>
       </c>
       <c r="Q39" t="n">
         <v>5</v>
@@ -2790,55 +2973,64 @@
         <v>5</v>
       </c>
       <c r="T39" t="n">
+        <v>5</v>
+      </c>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>5</v>
+      </c>
+      <c r="W39" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C40" t="n">
-        <v>-247.8</v>
+        <v>-2.3600332e+19</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.2436e+16</v>
+        <v>-22088000000000</v>
       </c>
       <c r="E40" t="n">
-        <v>-5.803999999999999e+25</v>
+        <v>-6.8640966e+21</v>
       </c>
       <c r="F40" t="n">
-        <v>-6712000000</v>
+        <v>-22088000000000</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.2436e+16</v>
+        <v>-52740</v>
       </c>
       <c r="H40" t="n">
-        <v>-1.8008e+16</v>
+        <v>-6.8640966e+21</v>
       </c>
       <c r="I40" t="n">
-        <v>18.33575741549827</v>
+        <v>-6.8640966e+21</v>
       </c>
       <c r="J40" t="n">
-        <v>1.322857815488876e+16</v>
+        <v>1.319205869268023e+19</v>
       </c>
       <c r="K40" t="n">
-        <v>8.049844718999245e+23</v>
+        <v>8076677534729.24</v>
       </c>
       <c r="L40" t="n">
-        <v>330938060.6699689</v>
+        <v>3.836876645223013e+21</v>
       </c>
       <c r="M40" t="n">
-        <v>1.322857815488876e+16</v>
+        <v>8076677534729.24</v>
       </c>
       <c r="N40" t="n">
-        <v>2.045554985816808e+16</v>
+        <v>4606.300033649568</v>
       </c>
       <c r="O40" t="n">
-        <v>5</v>
+        <v>3.836876645223013e+21</v>
       </c>
       <c r="P40" t="n">
-        <v>5</v>
+        <v>3.836876645223013e+21</v>
       </c>
       <c r="Q40" t="n">
         <v>5</v>
@@ -2850,59 +3042,68 @@
         <v>5</v>
       </c>
       <c r="T40" t="n">
+        <v>5</v>
+      </c>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>5</v>
+      </c>
+      <c r="W40" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>lympho</t>
+          <t>letter</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.07160000000000001</v>
+        <v>-0.286</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1498</v>
+        <v>-0.3838</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.1748</v>
+        <v>-0.3844</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.4048</v>
+        <v>3.162</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.05092</v>
+        <v>-0.7398</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.08108</v>
+        <v>-0.3786</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2088487490984804</v>
+        <v>-0.3866</v>
       </c>
       <c r="J41" t="n">
-        <v>0.02638560213449751</v>
+        <v>0.01341640786499874</v>
       </c>
       <c r="K41" t="n">
-        <v>0.02951609730299722</v>
+        <v>0.01296919426949875</v>
       </c>
       <c r="L41" t="n">
-        <v>0.008497058314499166</v>
+        <v>0.02325510696599783</v>
       </c>
       <c r="M41" t="n">
-        <v>0.08166120253829232</v>
+        <v>1.435555641554865</v>
       </c>
       <c r="N41" t="n">
-        <v>0.05921108004419444</v>
+        <v>0.01520526224699856</v>
       </c>
       <c r="O41" t="n">
-        <v>5</v>
+        <v>0.01252198067399884</v>
       </c>
       <c r="P41" t="n">
-        <v>5</v>
+        <v>0.02370232056149775</v>
       </c>
       <c r="Q41" t="n">
         <v>5</v>
@@ -2914,55 +3115,64 @@
         <v>5</v>
       </c>
       <c r="T41" t="n">
+        <v>5</v>
+      </c>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>5</v>
+      </c>
+      <c r="W41" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.06606000000000001</v>
+        <v>-218467400</v>
       </c>
       <c r="D42" t="n">
-        <v>65.42</v>
+        <v>-18880</v>
       </c>
       <c r="E42" t="n">
-        <v>-27.018</v>
+        <v>-2736606000</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.348</v>
+        <v>-357000</v>
       </c>
       <c r="G42" t="n">
-        <v>-29.58</v>
+        <v>-311</v>
       </c>
       <c r="H42" t="n">
-        <v>-30.22</v>
+        <v>-18880</v>
       </c>
       <c r="I42" t="n">
-        <v>0.01820159333684829</v>
+        <v>-33500</v>
       </c>
       <c r="J42" t="n">
-        <v>38.63925465119637</v>
+        <v>121938600.589805</v>
       </c>
       <c r="K42" t="n">
-        <v>12.03451785490387</v>
+        <v>6529.318494299387</v>
       </c>
       <c r="L42" t="n">
-        <v>0.2414953415699773</v>
+        <v>1528115439.415491</v>
       </c>
       <c r="M42" t="n">
-        <v>4.069643719049616</v>
+        <v>58137.76741499453</v>
       </c>
       <c r="N42" t="n">
-        <v>6.887089370699352</v>
+        <v>15.65247584249853</v>
       </c>
       <c r="O42" t="n">
-        <v>5</v>
+        <v>6529.318494299387</v>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>12745.5874717488</v>
       </c>
       <c r="Q42" t="n">
         <v>5</v>
@@ -2974,55 +3184,64 @@
         <v>5</v>
       </c>
       <c r="T42" t="n">
+        <v>5</v>
+      </c>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>5</v>
+      </c>
+      <c r="W42" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C43" t="n">
-        <v>-18608</v>
+        <v>-2363000000000000</v>
       </c>
       <c r="D43" t="n">
-        <v>-102300</v>
+        <v>-25342200000</v>
       </c>
       <c r="E43" t="n">
-        <v>-102300</v>
+        <v>-2.3221e+17</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.4188</v>
+        <v>-466460000000</v>
       </c>
       <c r="G43" t="n">
-        <v>-102300</v>
+        <v>-621800</v>
       </c>
       <c r="H43" t="n">
-        <v>-102300</v>
+        <v>-25342200000</v>
       </c>
       <c r="I43" t="n">
-        <v>4901.461006679539</v>
+        <v>-27689200000</v>
       </c>
       <c r="J43" t="n">
-        <v>35106.2672467467</v>
+        <v>932440346617412.4</v>
       </c>
       <c r="K43" t="n">
-        <v>35106.2672467467</v>
+        <v>13992866189.59818</v>
       </c>
       <c r="L43" t="n">
-        <v>0.01609968943799845</v>
+        <v>1.269863004422131e+17</v>
       </c>
       <c r="M43" t="n">
-        <v>35106.2672467467</v>
+        <v>253883158165.3261</v>
       </c>
       <c r="N43" t="n">
-        <v>35106.2672467467</v>
+        <v>85417.79674049196</v>
       </c>
       <c r="O43" t="n">
-        <v>5</v>
+        <v>13992866189.59818</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
+        <v>15229411781.15557</v>
       </c>
       <c r="Q43" t="n">
         <v>5</v>
@@ -3034,55 +3253,64 @@
         <v>5</v>
       </c>
       <c r="T43" t="n">
+        <v>5</v>
+      </c>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>5</v>
+      </c>
+      <c r="W43" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n"/>
       <c r="B44" s="1" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C44" t="n">
-        <v>-3134</v>
+        <v>-247.8</v>
       </c>
       <c r="D44" t="n">
-        <v>-24360</v>
+        <v>-1.2436e+16</v>
       </c>
       <c r="E44" t="n">
-        <v>-24360</v>
+        <v>-5.803999999999999e+25</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.3852</v>
+        <v>-1.0960226e+21</v>
       </c>
       <c r="G44" t="n">
-        <v>-24360</v>
+        <v>-6712000000</v>
       </c>
       <c r="H44" t="n">
-        <v>-24360</v>
+        <v>-1.2436e+16</v>
       </c>
       <c r="I44" t="n">
-        <v>8.944271909999127</v>
+        <v>-1.8008e+16</v>
       </c>
       <c r="J44" t="n">
-        <v>357.7708763999666</v>
+        <v>18.33575741549827</v>
       </c>
       <c r="K44" t="n">
-        <v>357.7708763999666</v>
+        <v>1.322857815488876e+16</v>
       </c>
       <c r="L44" t="n">
-        <v>0.03622430123549658</v>
+        <v>8.049844718999245e+23</v>
       </c>
       <c r="M44" t="n">
-        <v>357.7708763999666</v>
+        <v>6.12632090698651e+20</v>
       </c>
       <c r="N44" t="n">
-        <v>357.7708763999666</v>
+        <v>330938060.6699689</v>
       </c>
       <c r="O44" t="n">
-        <v>5</v>
+        <v>1.322857815488876e+16</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
+        <v>2.045554985816808e+16</v>
       </c>
       <c r="Q44" t="n">
         <v>5</v>
@@ -3094,111 +3322,137 @@
         <v>5</v>
       </c>
       <c r="T44" t="n">
+        <v>5</v>
+      </c>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>5</v>
+      </c>
+      <c r="W44" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>musk</t>
+          <t>lympho</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>-2.67e+22</v>
+        <v>-0.07160000000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>-819</v>
+        <v>-0.1498</v>
       </c>
       <c r="E45" t="n">
-        <v>-2.31e+43</v>
+        <v>-0.1748</v>
       </c>
       <c r="F45" t="n">
-        <v>-4540</v>
+        <v>1.905274</v>
       </c>
       <c r="G45" t="n">
-        <v>-819</v>
+        <v>-0.4048</v>
       </c>
       <c r="H45" t="n">
-        <v>-1610</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
+        <v>-0.05092</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-0.08108</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.2088487490984804</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.02638560213449751</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.02951609730299722</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.061519606686565</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.008497058314499166</v>
+      </c>
       <c r="O45" t="n">
-        <v>1</v>
+        <v>0.08166120253829232</v>
       </c>
       <c r="P45" t="n">
-        <v>1</v>
+        <v>0.05921108004419444</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T45" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>5</v>
+      </c>
+      <c r="W45" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>pendigits</t>
-        </is>
-      </c>
+      <c r="A46" s="1" t="n"/>
       <c r="B46" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.5035999999999999</v>
+        <v>-0.06606000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.4173999999999999</v>
+        <v>65.42</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.5248</v>
+        <v>-27.018</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.8256</v>
+        <v>-44.86</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.5176000000000001</v>
+        <v>-0.348</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.5216000000000001</v>
+        <v>-29.58</v>
       </c>
       <c r="I46" t="n">
-        <v>0.007602631123499292</v>
+        <v>-30.22</v>
       </c>
       <c r="J46" t="n">
-        <v>0.00134164078649987</v>
+        <v>0.01820159333684829</v>
       </c>
       <c r="K46" t="n">
-        <v>0.004919349550499491</v>
+        <v>38.63925465119637</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0008944271909999374</v>
+        <v>12.03451785490387</v>
       </c>
       <c r="M46" t="n">
-        <v>0.007602631123499314</v>
+        <v>12.61142339309881</v>
       </c>
       <c r="N46" t="n">
-        <v>0.005366563145999497</v>
+        <v>0.2414953415699773</v>
       </c>
       <c r="O46" t="n">
-        <v>5</v>
+        <v>4.069643719049616</v>
       </c>
       <c r="P46" t="n">
-        <v>5</v>
+        <v>6.887089370699352</v>
       </c>
       <c r="Q46" t="n">
         <v>5</v>
@@ -3212,57 +3466,62 @@
       <c r="T46" t="n">
         <v>5</v>
       </c>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>5</v>
+      </c>
+      <c r="W46" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>pima</t>
-        </is>
-      </c>
+      <c r="A47" s="1" t="n"/>
       <c r="B47" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.9468</v>
+        <v>-18608</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.007468</v>
+        <v>-102300</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.9468</v>
+        <v>-102300</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.69</v>
+        <v>-7172</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.9448000000000001</v>
+        <v>-0.4188</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.9418</v>
+        <v>-102300</v>
       </c>
       <c r="I47" t="n">
-        <v>0.001788854381999827</v>
+        <v>-102300</v>
       </c>
       <c r="J47" t="n">
-        <v>0.007173306071819325</v>
+        <v>4901.461006679539</v>
       </c>
       <c r="K47" t="n">
-        <v>0.001788854381999827</v>
+        <v>35106.2672467467</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>35106.2672467467</v>
       </c>
       <c r="M47" t="n">
-        <v>0.004024922359499643</v>
+        <v>15220.91472284107</v>
       </c>
       <c r="N47" t="n">
-        <v>0.004024922359499602</v>
+        <v>0.01609968943799845</v>
       </c>
       <c r="O47" t="n">
-        <v>5</v>
+        <v>35106.2672467467</v>
       </c>
       <c r="P47" t="n">
-        <v>5</v>
+        <v>35106.2672467467</v>
       </c>
       <c r="Q47" t="n">
         <v>5</v>
@@ -3274,55 +3533,64 @@
         <v>5</v>
       </c>
       <c r="T47" t="n">
+        <v>5</v>
+      </c>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>5</v>
+      </c>
+      <c r="W47" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
       <c r="B48" s="1" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.338</v>
+        <v>-3134</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.586</v>
+        <v>-24360</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.52</v>
+        <v>-24360</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.796</v>
+        <v>-1102.86</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.43</v>
+        <v>-0.3852</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.558</v>
+        <v>-24360</v>
       </c>
       <c r="I48" t="n">
-        <v>0.04024922359499617</v>
+        <v>-24360</v>
       </c>
       <c r="J48" t="n">
-        <v>0.1028591269649903</v>
+        <v>8.944271909999127</v>
       </c>
       <c r="K48" t="n">
-        <v>0.201246117974981</v>
+        <v>357.7708763999666</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0357770876399967</v>
+        <v>357.7708763999666</v>
       </c>
       <c r="M48" t="n">
-        <v>0.1341640786499873</v>
+        <v>597.3431995092938</v>
       </c>
       <c r="N48" t="n">
-        <v>0.1296919426949878</v>
+        <v>0.03622430123549658</v>
       </c>
       <c r="O48" t="n">
-        <v>5</v>
+        <v>357.7708763999666</v>
       </c>
       <c r="P48" t="n">
-        <v>5</v>
+        <v>357.7708763999666</v>
       </c>
       <c r="Q48" t="n">
         <v>5</v>
@@ -3336,533 +3604,366 @@
       <c r="T48" t="n">
         <v>5</v>
       </c>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>5</v>
+      </c>
+      <c r="W48" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n"/>
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>musk</t>
+        </is>
+      </c>
       <c r="B49" s="1" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C49" t="n">
-        <v>-2.45</v>
+        <v>-2.67e+22</v>
       </c>
       <c r="D49" t="n">
-        <v>-4.278</v>
+        <v>-819</v>
       </c>
       <c r="E49" t="n">
-        <v>-4.75</v>
+        <v>-2.31e+43</v>
       </c>
       <c r="F49" t="n">
-        <v>-5.802</v>
+        <v>-1.8474e+32</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.54</v>
+        <v>-4540</v>
       </c>
       <c r="H49" t="n">
-        <v>-4.779999999999999</v>
+        <v>-819</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1118033988749895</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.2728002932549742</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.5590169943749476</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.1296919426949879</v>
-      </c>
+        <v>-1610</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>0.5142956348249511</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0.6037383539249432</v>
-      </c>
-      <c r="O49" t="n">
-        <v>5</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
+        <v>5.201094115664512e+31</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
       <c r="Q49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T49" t="n">
         <v>5</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n"/>
       <c r="B50" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="C50" t="n">
-        <v>-5.29</v>
-      </c>
-      <c r="D50" t="n">
-        <v>-38.3</v>
-      </c>
-      <c r="E50" t="n">
-        <v>-30.9</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
-        <v>-28.2</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-37.34</v>
-      </c>
-      <c r="H50" t="n">
-        <v>-34.32</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.6260990336999411</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.118033988749895</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2.23606797749979</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.4472135954999577</v>
-      </c>
+        <v>-1.4516e+105</v>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>1.475804865149861</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0.939148550549914</v>
-      </c>
-      <c r="O50" t="n">
-        <v>5</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+        <v>1.519631797508857e+105</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
       <c r="T50" t="n">
         <v>5</v>
       </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>satellite</t>
-        </is>
-      </c>
+      <c r="A51" s="1" t="n"/>
       <c r="B51" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C51" t="n">
-        <v>-13.8</v>
-      </c>
-      <c r="D51" t="n">
-        <v>-12.8</v>
-      </c>
-      <c r="E51" t="n">
-        <v>-27</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
-        <v>-3.16</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-12.8</v>
-      </c>
-      <c r="H51" t="n">
-        <v>-14.8</v>
-      </c>
+        <v>-1.0972e+184</v>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr"/>
-      <c r="O51" t="n">
-        <v>1</v>
-      </c>
-      <c r="P51" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>1</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1</v>
-      </c>
-      <c r="S51" t="n">
-        <v>1</v>
-      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
       <c r="T51" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>-3.54e+281</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
         <is>
-          <t>thyroid</t>
+          <t>inf</t>
         </is>
       </c>
-      <c r="B52" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" t="n">
-        <v>-0.9634</v>
-      </c>
-      <c r="D52" t="n">
-        <v>-2e-30</v>
-      </c>
-      <c r="E52" t="n">
-        <v>-0.985</v>
-      </c>
-      <c r="F52" t="n">
-        <v>-1.71</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-0.9852000000000001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>-0.9815999999999999</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.003130495168499753</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.004472135954999567</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.0004472135955000131</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0.005366563145999497</v>
-      </c>
-      <c r="O52" t="n">
-        <v>5</v>
-      </c>
-      <c r="P52" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
-      <c r="R52" t="n">
-        <v>5</v>
-      </c>
-      <c r="S52" t="n">
-        <v>5</v>
-      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="n">
         <v>5</v>
       </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n"/>
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>parkinsons</t>
+        </is>
+      </c>
       <c r="B53" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C53" t="n">
-        <v>-1.282</v>
-      </c>
-      <c r="D53" t="n">
-        <v>-1.0926</v>
-      </c>
-      <c r="E53" t="n">
-        <v>-1.366</v>
-      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
-        <v>-2.296</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-1.358</v>
-      </c>
-      <c r="H53" t="n">
-        <v>-1.366</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.01788854381999835</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.0612682625834943</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.03130495168499694</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0.008944271909999005</v>
-      </c>
+        <v>76.48</v>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>0.02683281572999752</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0.03130495168499694</v>
-      </c>
-      <c r="O53" t="n">
-        <v>5</v>
-      </c>
-      <c r="P53" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>5</v>
-      </c>
-      <c r="R53" t="n">
-        <v>5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
+        <v>25.5358963030476</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
       <c r="T53" t="n">
         <v>5</v>
       </c>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
       <c r="B54" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C54" t="n">
-        <v>-5.788</v>
-      </c>
-      <c r="D54" t="n">
-        <v>-19.54</v>
-      </c>
-      <c r="E54" t="n">
-        <v>-84500000</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
-        <v>-17</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-19.38</v>
-      </c>
-      <c r="H54" t="n">
-        <v>-19.34</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.3622430123549664</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1.252198067399882</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1341640.786499874</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
+        <v>-1972000</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>0.6260990336999398</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0.5366563145999507</v>
-      </c>
-      <c r="O54" t="n">
-        <v>5</v>
-      </c>
-      <c r="P54" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>5</v>
-      </c>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
+        <v>943620.6865049113</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
       <c r="T54" t="n">
         <v>5</v>
       </c>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C55" t="n">
-        <v>-11.46</v>
-      </c>
-      <c r="D55" t="n">
-        <v>-226.2</v>
-      </c>
-      <c r="E55" t="n">
-        <v>-371800000000</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
-        <v>-59.8</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-226.2</v>
-      </c>
-      <c r="H55" t="n">
-        <v>-247</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.5813776741499455</v>
-      </c>
-      <c r="J55" t="n">
-        <v>12.96919426949878</v>
-      </c>
-      <c r="K55" t="n">
-        <v>45168573145.49576</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0.4472135954999586</v>
-      </c>
+        <v>-1588000000</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>12.96919426949878</v>
-      </c>
-      <c r="N55" t="n">
-        <v>8.944271909999157</v>
-      </c>
-      <c r="O55" t="n">
-        <v>5</v>
-      </c>
-      <c r="P55" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>5</v>
-      </c>
-      <c r="R55" t="n">
-        <v>5</v>
-      </c>
-      <c r="S55" t="n">
-        <v>5</v>
-      </c>
+        <v>205718253.9299806</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
       <c r="T55" t="n">
         <v>5</v>
       </c>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>-244540000000000</v>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>97179514302140.86</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="n">
+        <v>5</v>
+      </c>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>vowels</t>
+          <t>pendigits</t>
         </is>
       </c>
-      <c r="B56" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" t="n">
-        <v>-1.078</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.000132</v>
-      </c>
-      <c r="E56" t="n">
-        <v>-1.084</v>
-      </c>
-      <c r="F56" t="n">
-        <v>-1.744</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-1.074</v>
-      </c>
-      <c r="H56" t="n">
-        <v>-1.074</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.004472135954999503</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.001940907004469817</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.008944271909999134</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0.008944271909999134</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.008944271909999134</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0.008944271909999134</v>
-      </c>
-      <c r="O56" t="n">
-        <v>5</v>
-      </c>
-      <c r="P56" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>5</v>
-      </c>
-      <c r="R56" t="n">
-        <v>5</v>
-      </c>
-      <c r="S56" t="n">
-        <v>5</v>
-      </c>
-      <c r="T56" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n"/>
       <c r="B57" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>-2.932</v>
+        <v>-0.5035999999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>-6.318</v>
+        <v>-0.4173999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>-6.598000000000001</v>
+        <v>-0.5248</v>
       </c>
       <c r="F57" t="n">
-        <v>-6.308</v>
+        <v>6.76</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.409999999999999</v>
+        <v>-0.8256</v>
       </c>
       <c r="H57" t="n">
-        <v>-6.204</v>
+        <v>-0.5176000000000001</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0491934955049952</v>
+        <v>-0.5216000000000001</v>
       </c>
       <c r="J57" t="n">
-        <v>0.1520526224699856</v>
+        <v>0.007602631123499292</v>
       </c>
       <c r="K57" t="n">
-        <v>0.1520526224699856</v>
+        <v>0.00134164078649987</v>
       </c>
       <c r="L57" t="n">
-        <v>0.004472135954999344</v>
+        <v>0.004919349550499491</v>
       </c>
       <c r="M57" t="n">
-        <v>0.1341640786499878</v>
+        <v>1.319280106724876</v>
       </c>
       <c r="N57" t="n">
-        <v>0.4561578674099569</v>
+        <v>0.0008944271909999374</v>
       </c>
       <c r="O57" t="n">
-        <v>5</v>
+        <v>0.007602631123499314</v>
       </c>
       <c r="P57" t="n">
-        <v>5</v>
+        <v>0.005366563145999497</v>
       </c>
       <c r="Q57" t="n">
         <v>5</v>
@@ -3874,303 +3975,236 @@
         <v>5</v>
       </c>
       <c r="T57" t="n">
+        <v>5</v>
+      </c>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>5</v>
+      </c>
+      <c r="W57" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
       <c r="B58" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="C58" t="n">
-        <v>-25840</v>
-      </c>
-      <c r="D58" t="n">
-        <v>-102.1</v>
-      </c>
-      <c r="E58" t="n">
-        <v>-216200</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
-        <v>-37.18</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-103.94</v>
-      </c>
-      <c r="H58" t="n">
-        <v>-86.8</v>
-      </c>
-      <c r="I58" t="n">
-        <v>19096.0205278482</v>
-      </c>
-      <c r="J58" t="n">
-        <v>22.13707297724792</v>
-      </c>
-      <c r="K58" t="n">
-        <v>152499.8360654856</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0.04472135954999405</v>
-      </c>
+        <v>20.76</v>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>18.02270789864831</v>
-      </c>
-      <c r="N58" t="n">
-        <v>8.497058314499201</v>
-      </c>
-      <c r="O58" t="n">
-        <v>5</v>
-      </c>
-      <c r="P58" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>5</v>
-      </c>
-      <c r="R58" t="n">
-        <v>5</v>
-      </c>
-      <c r="S58" t="n">
-        <v>5</v>
-      </c>
+        <v>4.829906831399545</v>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
       <c r="T58" t="n">
         <v>5</v>
       </c>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n"/>
       <c r="B59" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="C59" t="n">
-        <v>-34436000</v>
-      </c>
-      <c r="D59" t="n">
-        <v>-5720</v>
-      </c>
-      <c r="E59" t="n">
-        <v>-3449356000</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="n">
-        <v>-876.6</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-8224</v>
-      </c>
-      <c r="H59" t="n">
-        <v>-12980</v>
-      </c>
-      <c r="I59" t="n">
-        <v>18478865.76605826</v>
-      </c>
-      <c r="J59" t="n">
-        <v>8094.566078549239</v>
-      </c>
-      <c r="K59" t="n">
-        <v>1924458488.427329</v>
-      </c>
-      <c r="L59" t="n">
-        <v>18.78297101099823</v>
-      </c>
+        <v>-200.6</v>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>6694.78752463437</v>
-      </c>
-      <c r="N59" t="n">
-        <v>11471.02872457392</v>
-      </c>
-      <c r="O59" t="n">
-        <v>5</v>
-      </c>
-      <c r="P59" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>5</v>
-      </c>
-      <c r="R59" t="n">
-        <v>5</v>
-      </c>
-      <c r="S59" t="n">
-        <v>5</v>
-      </c>
+        <v>275.930788423474</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
       <c r="T59" t="n">
         <v>5</v>
       </c>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>-289400</v>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>112697.8260659894</v>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="n">
+        <v>5</v>
+      </c>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>winequality</t>
+          <t>pima</t>
         </is>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B61" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C60" t="n">
-        <v>-1.354</v>
-      </c>
-      <c r="D60" t="n">
-        <v>-0.002804</v>
-      </c>
-      <c r="E60" t="n">
-        <v>-1.334</v>
-      </c>
-      <c r="F60" t="n">
-        <v>-2.384</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-1.365</v>
-      </c>
-      <c r="H60" t="n">
-        <v>-1.364</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.009660917830792894</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.0004976210070592546</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.05796550698475779</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0.00966091783079307</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.01269295517643975</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0.009660917830792894</v>
-      </c>
-      <c r="O60" t="n">
-        <v>10</v>
-      </c>
-      <c r="P60" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>10</v>
-      </c>
-      <c r="R60" t="n">
-        <v>10</v>
-      </c>
-      <c r="S60" t="n">
-        <v>10</v>
-      </c>
-      <c r="T60" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n"/>
-      <c r="B61" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="C61" t="n">
-        <v>-5.694</v>
+        <v>-0.9468</v>
       </c>
       <c r="D61" t="n">
-        <v>-38.92</v>
+        <v>-0.007468</v>
       </c>
       <c r="E61" t="n">
-        <v>-41.18</v>
+        <v>-0.9468</v>
       </c>
       <c r="F61" t="n">
-        <v>-19.64</v>
+        <v>12.58</v>
       </c>
       <c r="G61" t="n">
-        <v>-38.92</v>
+        <v>-1.69</v>
       </c>
       <c r="H61" t="n">
-        <v>-41.04</v>
+        <v>-0.9448000000000001</v>
       </c>
       <c r="I61" t="n">
-        <v>0.05059644256269431</v>
+        <v>-0.9418</v>
       </c>
       <c r="J61" t="n">
-        <v>2.276839915321233</v>
+        <v>0.001788854381999827</v>
       </c>
       <c r="K61" t="n">
-        <v>2.993622851626068</v>
+        <v>0.007173306071819325</v>
       </c>
       <c r="L61" t="n">
-        <v>0.1264911064067359</v>
+        <v>0.001788854381999827</v>
       </c>
       <c r="M61" t="n">
-        <v>2.276839915321233</v>
+        <v>7.33430296619931</v>
       </c>
       <c r="N61" t="n">
-        <v>4.132042809286681</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>10</v>
+        <v>0.004024922359499643</v>
       </c>
       <c r="P61" t="n">
-        <v>10</v>
+        <v>0.004024922359499602</v>
       </c>
       <c r="Q61" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R61" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S61" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T61" t="n">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>5</v>
+      </c>
+      <c r="W61" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>winequality-red</t>
-        </is>
-      </c>
+      <c r="A62" s="1" t="n"/>
       <c r="B62" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.06</v>
+        <v>-1.338</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.010248</v>
+        <v>-1.586</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.096</v>
+        <v>-1.52</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.894</v>
+        <v>12.276</v>
       </c>
       <c r="G62" t="n">
-        <v>-1.086</v>
+        <v>-2.796</v>
       </c>
       <c r="H62" t="n">
-        <v>-1.096</v>
+        <v>-1.43</v>
       </c>
       <c r="I62" t="n">
-        <v>0.02236067977499803</v>
+        <v>-1.558</v>
       </c>
       <c r="J62" t="n">
-        <v>0.002321038560644782</v>
+        <v>0.04024922359499617</v>
       </c>
       <c r="K62" t="n">
-        <v>0.01341640786499872</v>
+        <v>0.1028591269649903</v>
       </c>
       <c r="L62" t="n">
-        <v>0.008944271909999134</v>
+        <v>0.201246117974981</v>
       </c>
       <c r="M62" t="n">
-        <v>0.0134164078649988</v>
+        <v>1.842520013459827</v>
       </c>
       <c r="N62" t="n">
-        <v>0.01341640786499872</v>
+        <v>0.0357770876399967</v>
       </c>
       <c r="O62" t="n">
-        <v>5</v>
+        <v>0.1341640786499873</v>
       </c>
       <c r="P62" t="n">
-        <v>5</v>
+        <v>0.1296919426949878</v>
       </c>
       <c r="Q62" t="n">
         <v>5</v>
@@ -4182,6 +4216,15 @@
         <v>5</v>
       </c>
       <c r="T62" t="n">
+        <v>5</v>
+      </c>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>5</v>
+      </c>
+      <c r="W62" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4191,46 +4234,46 @@
         <v>4</v>
       </c>
       <c r="C63" t="n">
-        <v>-2.784</v>
+        <v>-2.45</v>
       </c>
       <c r="D63" t="n">
-        <v>-12.24</v>
+        <v>-4.278</v>
       </c>
       <c r="E63" t="n">
-        <v>-19748.64</v>
+        <v>-4.75</v>
       </c>
       <c r="F63" t="n">
-        <v>-9.863999999999999</v>
+        <v>29.16</v>
       </c>
       <c r="G63" t="n">
-        <v>-12.66</v>
+        <v>-5.802</v>
       </c>
       <c r="H63" t="n">
-        <v>-14.68</v>
+        <v>-4.54</v>
       </c>
       <c r="I63" t="n">
-        <v>0.03130495168499678</v>
+        <v>-4.779999999999999</v>
       </c>
       <c r="J63" t="n">
-        <v>1.207476707849887</v>
+        <v>0.1118033988749895</v>
       </c>
       <c r="K63" t="n">
-        <v>44135.15196901445</v>
+        <v>0.2728002932549742</v>
       </c>
       <c r="L63" t="n">
-        <v>0.1878297101099815</v>
+        <v>0.5590169943749476</v>
       </c>
       <c r="M63" t="n">
-        <v>1.475804865149861</v>
+        <v>2.549117494349759</v>
       </c>
       <c r="N63" t="n">
-        <v>1.520526224699856</v>
+        <v>0.1296919426949879</v>
       </c>
       <c r="O63" t="n">
-        <v>5</v>
+        <v>0.5142956348249511</v>
       </c>
       <c r="P63" t="n">
-        <v>5</v>
+        <v>0.6037383539249432</v>
       </c>
       <c r="Q63" t="n">
         <v>5</v>
@@ -4242,6 +4285,15 @@
         <v>5</v>
       </c>
       <c r="T63" t="n">
+        <v>5</v>
+      </c>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>5</v>
+      </c>
+      <c r="W63" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4251,616 +4303,1845 @@
         <v>6</v>
       </c>
       <c r="C64" t="n">
+        <v>-5.29</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-38.3</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-30.9</v>
+      </c>
+      <c r="F64" t="n">
+        <v>146.18</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-28.2</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-37.34</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-34.32</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.6260990336999411</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1.118033988749895</v>
+      </c>
+      <c r="L64" t="n">
+        <v>2.23606797749979</v>
+      </c>
+      <c r="M64" t="n">
+        <v>59.97134315654436</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.4472135954999577</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.475804865149861</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.939148550549914</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="n">
+        <v>5</v>
+      </c>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>5</v>
+      </c>
+      <c r="W64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>satellite</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-13.8</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-12.8</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-27</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-8.776</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-3.16</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-12.8</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-14.8</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>12.19998688523885</v>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="n">
+        <v>5</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>-22140000</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>3890758.280849634</v>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="n">
+        <v>5</v>
+      </c>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>-223240000000000</v>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>79961790875392.47</v>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="n">
+        <v>5</v>
+      </c>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>-2.332e+21</v>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>1.368473602229871e+21</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="n">
+        <v>5</v>
+      </c>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>thyroid</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-0.9634</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-2e-30</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0.985</v>
+      </c>
+      <c r="F69" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-0.9852000000000001</v>
+      </c>
+      <c r="I69" t="n">
+        <v>-0.9815999999999999</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.003130495168499753</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.004472135954999567</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2.906888370749726</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.0004472135955000131</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.005366563145999497</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="n">
+        <v>5</v>
+      </c>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>5</v>
+      </c>
+      <c r="W69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-1.282</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-1.0926</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-1.366</v>
+      </c>
+      <c r="F70" t="n">
+        <v>18.02</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-2.296</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-1.358</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-1.366</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.01788854381999835</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.0612682625834943</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.03130495168499694</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5.858498101049449</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.008944271909999005</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.02683281572999752</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.03130495168499694</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="n">
+        <v>5</v>
+      </c>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>5</v>
+      </c>
+      <c r="W70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-5.788</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-19.54</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-84500000</v>
+      </c>
+      <c r="F71" t="n">
+        <v>458</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-17</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-19.38</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-19.34</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.3622430123549664</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1.252198067399882</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1341640.786499874</v>
+      </c>
+      <c r="M71" t="n">
+        <v>248.2035455024767</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.6260990336999398</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.5366563145999507</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="n">
+        <v>5</v>
+      </c>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>5</v>
+      </c>
+      <c r="W71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-11.46</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-226.2</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-371800000000</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-1356.28</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-59.8</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-226.2</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-247</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5813776741499455</v>
+      </c>
+      <c r="K72" t="n">
+        <v>12.96919426949878</v>
+      </c>
+      <c r="L72" t="n">
+        <v>45168573145.49576</v>
+      </c>
+      <c r="M72" t="n">
+        <v>790.9419650012256</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.4472135954999586</v>
+      </c>
+      <c r="O72" t="n">
+        <v>12.96919426949878</v>
+      </c>
+      <c r="P72" t="n">
+        <v>8.944271909999157</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="n">
+        <v>5</v>
+      </c>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>5</v>
+      </c>
+      <c r="W72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>vowels</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-1.078</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.000132</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-1.084</v>
+      </c>
+      <c r="F73" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-1.744</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-1.074</v>
+      </c>
+      <c r="I73" t="n">
+        <v>-1.074</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.004472135954999503</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.001940907004469817</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.008944271909999134</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2.32551069659978</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.008944271909999134</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.008944271909999134</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.008944271909999134</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="n">
+        <v>5</v>
+      </c>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>5</v>
+      </c>
+      <c r="W73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-2.932</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-6.318</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-6.598000000000001</v>
+      </c>
+      <c r="F74" t="n">
+        <v>215.98</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-6.308</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-6.409999999999999</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-6.204</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.0491934955049952</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1520526224699856</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.1520526224699856</v>
+      </c>
+      <c r="M74" t="n">
+        <v>102.9038483245403</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.004472135954999344</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.1341640786499878</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.4561578674099569</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="n">
+        <v>5</v>
+      </c>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>5</v>
+      </c>
+      <c r="W74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-25840</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-102.1</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-216200</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-94.32000000000001</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-37.18</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-103.94</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-86.8</v>
+      </c>
+      <c r="J75" t="n">
+        <v>19096.0205278482</v>
+      </c>
+      <c r="K75" t="n">
+        <v>22.13707297724792</v>
+      </c>
+      <c r="L75" t="n">
+        <v>152499.8360654856</v>
+      </c>
+      <c r="M75" t="n">
+        <v>50.13264405554528</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.04472135954999405</v>
+      </c>
+      <c r="O75" t="n">
+        <v>18.02270789864831</v>
+      </c>
+      <c r="P75" t="n">
+        <v>8.497058314499201</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="n">
+        <v>5</v>
+      </c>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>5</v>
+      </c>
+      <c r="W75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-34436000</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-5720</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-3449356000</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-478000</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-876.6</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-8224</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-12980</v>
+      </c>
+      <c r="J76" t="n">
+        <v>18478865.76605826</v>
+      </c>
+      <c r="K76" t="n">
+        <v>8094.566078549239</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1924458488.427329</v>
+      </c>
+      <c r="M76" t="n">
+        <v>610446.5578574425</v>
+      </c>
+      <c r="N76" t="n">
+        <v>18.78297101099823</v>
+      </c>
+      <c r="O76" t="n">
+        <v>6694.78752463437</v>
+      </c>
+      <c r="P76" t="n">
+        <v>11471.02872457392</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="n">
+        <v>5</v>
+      </c>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>5</v>
+      </c>
+      <c r="W76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>winequality</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-1.354</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.002804</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-1.334</v>
+      </c>
+      <c r="F77" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-2.384</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-1.365</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-1.364</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.009660917830792894</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.0004976210070592546</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.05796550698475779</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1.475804865149861</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.00966091783079307</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.01269295517643975</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0.009660917830792894</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>10</v>
+      </c>
+      <c r="R77" t="n">
+        <v>10</v>
+      </c>
+      <c r="S77" t="n">
+        <v>10</v>
+      </c>
+      <c r="T77" t="n">
+        <v>5</v>
+      </c>
+      <c r="U77" t="n">
+        <v>10</v>
+      </c>
+      <c r="V77" t="n">
+        <v>10</v>
+      </c>
+      <c r="W77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-5.694</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-38.92</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-41.18</v>
+      </c>
+      <c r="F78" t="n">
+        <v>997.6</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-19.64</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-38.92</v>
+      </c>
+      <c r="I78" t="n">
+        <v>-41.04</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.05059644256269431</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2.276839915321233</v>
+      </c>
+      <c r="L78" t="n">
+        <v>2.993622851626068</v>
+      </c>
+      <c r="M78" t="n">
+        <v>117.169962020989</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.1264911064067359</v>
+      </c>
+      <c r="O78" t="n">
+        <v>2.276839915321233</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4.132042809286681</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>10</v>
+      </c>
+      <c r="R78" t="n">
+        <v>10</v>
+      </c>
+      <c r="S78" t="n">
+        <v>10</v>
+      </c>
+      <c r="T78" t="n">
+        <v>5</v>
+      </c>
+      <c r="U78" t="n">
+        <v>10</v>
+      </c>
+      <c r="V78" t="n">
+        <v>10</v>
+      </c>
+      <c r="W78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>-92380</v>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>81884.80933604229</v>
+      </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="n">
+        <v>5</v>
+      </c>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>-662400000</v>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>97492563.81899083</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="n">
+        <v>5</v>
+      </c>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>winequality-red</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-1.06</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.010248</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-1.096</v>
+      </c>
+      <c r="F81" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-1.894</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-1.086</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-1.096</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.02236067977499803</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.002321038560644782</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.01341640786499872</v>
+      </c>
+      <c r="M81" t="n">
+        <v>6.797646651599361</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.008944271909999134</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.0134164078649988</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0.01341640786499872</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="n">
+        <v>5</v>
+      </c>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>5</v>
+      </c>
+      <c r="W81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-2.784</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-12.24</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-19748.64</v>
+      </c>
+      <c r="F82" t="n">
+        <v>83.48</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-9.863999999999999</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-12.66</v>
+      </c>
+      <c r="I82" t="n">
+        <v>-14.68</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.03130495168499678</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1.207476707849887</v>
+      </c>
+      <c r="L82" t="n">
+        <v>44135.15196901445</v>
+      </c>
+      <c r="M82" t="n">
+        <v>8.005123359449239</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.1878297101099815</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1.475804865149861</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1.520526224699856</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="n">
+        <v>5</v>
+      </c>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>5</v>
+      </c>
+      <c r="W82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C83" t="n">
         <v>415999.624</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D83" t="n">
         <v>40.8</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E83" t="n">
         <v>-4980200000</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F83" t="n">
+        <v>-2790</v>
+      </c>
+      <c r="G83" t="n">
         <v>-73.40000000000001</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H83" t="n">
         <v>40.8</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I83" t="n">
         <v>-173</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J83" t="n">
         <v>232551.9104215377</v>
       </c>
-      <c r="J64" t="n">
+      <c r="K83" t="n">
         <v>569.7501206669464</v>
       </c>
-      <c r="K64" t="n">
+      <c r="L83" t="n">
         <v>2705195039.179245</v>
       </c>
-      <c r="L64" t="n">
+      <c r="M83" t="n">
+        <v>357.7708763999663</v>
+      </c>
+      <c r="N83" t="n">
         <v>0.8944271909999173</v>
       </c>
-      <c r="M64" t="n">
+      <c r="O83" t="n">
         <v>569.7501206669464</v>
       </c>
-      <c r="N64" t="n">
+      <c r="P83" t="n">
         <v>404.7283039274619</v>
       </c>
-      <c r="O64" t="n">
-        <v>5</v>
-      </c>
-      <c r="P64" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>5</v>
-      </c>
-      <c r="R64" t="n">
-        <v>5</v>
-      </c>
-      <c r="S64" t="n">
-        <v>5</v>
-      </c>
-      <c r="T64" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n"/>
-      <c r="B65" s="1" t="n">
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="n">
+        <v>5</v>
+      </c>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>5</v>
+      </c>
+      <c r="W83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C84" t="n">
         <v>-62480002.88</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D84" t="n">
         <v>-293780</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E84" t="n">
         <v>-242000556800000</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F84" t="n">
+        <v>-636200</v>
+      </c>
+      <c r="G84" t="n">
         <v>-598.6</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H84" t="n">
         <v>-293780</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I84" t="n">
         <v>-396440</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J84" t="n">
         <v>34927375.36867094</v>
       </c>
-      <c r="J65" t="n">
+      <c r="K84" t="n">
         <v>134656.0136050373</v>
       </c>
-      <c r="K65" t="n">
+      <c r="L84" t="n">
         <v>541128139294286.6</v>
       </c>
-      <c r="L65" t="n">
+      <c r="M84" t="n">
+        <v>21913.46617949795</v>
+      </c>
+      <c r="N84" t="n">
         <v>1.341640786499875</v>
       </c>
-      <c r="M65" t="n">
+      <c r="O84" t="n">
         <v>134656.0136050373</v>
       </c>
-      <c r="N65" t="n">
+      <c r="P84" t="n">
         <v>175665.5003123835</v>
       </c>
-      <c r="O65" t="n">
-        <v>5</v>
-      </c>
-      <c r="P65" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>5</v>
-      </c>
-      <c r="R65" t="n">
-        <v>5</v>
-      </c>
-      <c r="S65" t="n">
-        <v>5</v>
-      </c>
-      <c r="T65" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="n">
+        <v>5</v>
+      </c>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>5</v>
+      </c>
+      <c r="W84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
         <is>
           <t>winequality-white</t>
         </is>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="B85" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C85" t="n">
         <v>-1.188</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D85" t="n">
         <v>-0.001338</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E85" t="n">
         <v>-1.21</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F85" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="G85" t="n">
         <v>-2.142</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H85" t="n">
         <v>-1.212</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I85" t="n">
         <v>-1.21</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J85" t="n">
         <v>0.004472135954999503</v>
       </c>
-      <c r="J66" t="n">
+      <c r="K85" t="n">
         <v>0.002991858953894718</v>
       </c>
-      <c r="K66" t="n">
+      <c r="L85" t="n">
         <v>0</v>
       </c>
-      <c r="L66" t="n">
+      <c r="M85" t="n">
+        <v>3.443544685349677</v>
+      </c>
+      <c r="N85" t="n">
         <v>0.004472135954999503</v>
       </c>
-      <c r="M66" t="n">
+      <c r="O85" t="n">
         <v>0.004472135954999503</v>
       </c>
-      <c r="N66" t="n">
+      <c r="P85" t="n">
         <v>0</v>
       </c>
-      <c r="O66" t="n">
-        <v>5</v>
-      </c>
-      <c r="P66" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>5</v>
-      </c>
-      <c r="R66" t="n">
-        <v>5</v>
-      </c>
-      <c r="S66" t="n">
-        <v>5</v>
-      </c>
-      <c r="T66" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n"/>
-      <c r="B67" s="1" t="n">
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="n">
+        <v>5</v>
+      </c>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>5</v>
+      </c>
+      <c r="W85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n"/>
+      <c r="B86" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C86" t="n">
         <v>-6.93</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D86" t="n">
         <v>-22.36</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E86" t="n">
         <v>-71640</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F86" t="n">
+        <v>-112.2</v>
+      </c>
+      <c r="G86" t="n">
         <v>-17.54</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H86" t="n">
         <v>-23.76</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I86" t="n">
         <v>-25.28</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J86" t="n">
         <v>0.4695742752749555</v>
       </c>
-      <c r="J67" t="n">
+      <c r="K86" t="n">
         <v>2.593838853899757</v>
       </c>
-      <c r="K67" t="n">
+      <c r="L86" t="n">
         <v>234429.366761078</v>
       </c>
-      <c r="L67" t="n">
+      <c r="M86" t="n">
+        <v>417.6974981969607</v>
+      </c>
+      <c r="N86" t="n">
         <v>0.08944271909999202</v>
       </c>
-      <c r="M67" t="n">
+      <c r="O86" t="n">
         <v>1.923018460649819</v>
       </c>
-      <c r="N67" t="n">
+      <c r="P86" t="n">
         <v>1.073312629199899</v>
       </c>
-      <c r="O67" t="n">
-        <v>5</v>
-      </c>
-      <c r="P67" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>5</v>
-      </c>
-      <c r="R67" t="n">
-        <v>5</v>
-      </c>
-      <c r="S67" t="n">
-        <v>5</v>
-      </c>
-      <c r="T67" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n"/>
-      <c r="B68" s="1" t="n">
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="n">
+        <v>5</v>
+      </c>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>5</v>
+      </c>
+      <c r="W86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C87" t="n">
         <v>-149209.76</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D87" t="n">
         <v>-819.8</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E87" t="n">
         <v>-58984000000</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F87" t="n">
+        <v>-852400</v>
+      </c>
+      <c r="G87" t="n">
         <v>-120.4</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H87" t="n">
         <v>-819.8</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I87" t="n">
         <v>-996.4</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J87" t="n">
         <v>333615.8862371035</v>
       </c>
-      <c r="J68" t="n">
+      <c r="K87" t="n">
         <v>13.86362146049871</v>
       </c>
-      <c r="K68" t="n">
+      <c r="L87" t="n">
         <v>30222694783.88716</v>
       </c>
-      <c r="L68" t="n">
+      <c r="M87" t="n">
+        <v>397125.6728039627</v>
+      </c>
+      <c r="N87" t="n">
         <v>0.8944271909999173</v>
       </c>
-      <c r="M68" t="n">
+      <c r="O87" t="n">
         <v>13.86362146049871</v>
       </c>
-      <c r="N68" t="n">
+      <c r="P87" t="n">
         <v>8.049844718999244</v>
       </c>
-      <c r="O68" t="n">
-        <v>5</v>
-      </c>
-      <c r="P68" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>5</v>
-      </c>
-      <c r="R68" t="n">
-        <v>5</v>
-      </c>
-      <c r="S68" t="n">
-        <v>5</v>
-      </c>
-      <c r="T68" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n"/>
-      <c r="B69" s="1" t="n">
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="n">
+        <v>5</v>
+      </c>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>5</v>
+      </c>
+      <c r="W87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C88" t="n">
         <v>-1712000000</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D88" t="n">
         <v>-21020</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E88" t="n">
         <v>-457200000000000</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F88" t="n">
+        <v>-305000000</v>
+      </c>
+      <c r="G88" t="n">
         <v>-1090</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H88" t="n">
         <v>-21020</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I88" t="n">
         <v>-25540</v>
       </c>
-      <c r="I69" t="n">
+      <c r="J88" t="n">
         <v>107331262.9199899</v>
       </c>
-      <c r="J69" t="n">
+      <c r="K88" t="n">
         <v>849.7058314499199</v>
       </c>
-      <c r="K69" t="n">
+      <c r="L88" t="n">
         <v>353745954040466.8</v>
       </c>
-      <c r="L69" t="n">
+      <c r="M88" t="n">
+        <v>154288690.4474855</v>
+      </c>
+      <c r="N88" t="n">
         <v>0</v>
       </c>
-      <c r="M69" t="n">
+      <c r="O88" t="n">
         <v>849.7058314499199</v>
       </c>
-      <c r="N69" t="n">
+      <c r="P88" t="n">
         <v>760.2631123499287</v>
       </c>
-      <c r="O69" t="n">
-        <v>5</v>
-      </c>
-      <c r="P69" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>5</v>
-      </c>
-      <c r="R69" t="n">
-        <v>5</v>
-      </c>
-      <c r="S69" t="n">
-        <v>5</v>
-      </c>
-      <c r="T69" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="n">
+        <v>5</v>
+      </c>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>5</v>
+      </c>
+      <c r="W88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
         <is>
           <t>yeast</t>
         </is>
       </c>
-      <c r="B70" s="1" t="n">
+      <c r="B89" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C89" t="n">
         <v>-0.9702</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D89" t="n">
         <v>-2e-30</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E89" t="n">
         <v>-0.9757999999999999</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F89" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="G89" t="n">
         <v>-1.702</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H89" t="n">
         <v>-0.9631999999999999</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I89" t="n">
         <v>-0.9693999999999999</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J89" t="n">
         <v>0.007155417527999324</v>
       </c>
-      <c r="J70" t="n">
+      <c r="K89" t="n">
         <v>0</v>
       </c>
-      <c r="K70" t="n">
+      <c r="L89" t="n">
         <v>0.00849705831449925</v>
       </c>
-      <c r="L70" t="n">
+      <c r="M89" t="n">
+        <v>1.699411662899841</v>
+      </c>
+      <c r="N89" t="n">
         <v>0.00447213595499968</v>
       </c>
-      <c r="M70" t="n">
+      <c r="O89" t="n">
         <v>0.01162755348299894</v>
       </c>
-      <c r="N70" t="n">
+      <c r="P89" t="n">
         <v>0.009838699100999064</v>
       </c>
-      <c r="O70" t="n">
-        <v>5</v>
-      </c>
-      <c r="P70" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>5</v>
-      </c>
-      <c r="R70" t="n">
-        <v>5</v>
-      </c>
-      <c r="S70" t="n">
-        <v>5</v>
-      </c>
-      <c r="T70" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n"/>
-      <c r="B71" s="1" t="n">
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="n">
+        <v>5</v>
+      </c>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>5</v>
+      </c>
+      <c r="W89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C90" t="n">
         <v>-2.83</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D90" t="n">
         <v>-4.66</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E90" t="n">
         <v>-677.992</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F90" t="n">
+        <v>218417.86</v>
+      </c>
+      <c r="G90" t="n">
         <v>-5.994</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H90" t="n">
         <v>-4.77</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I90" t="n">
         <v>-4.808</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J90" t="n">
         <v>0.02236067977499787</v>
       </c>
-      <c r="J71" t="n">
+      <c r="K90" t="n">
         <v>0.08944271909999212</v>
       </c>
-      <c r="K71" t="n">
+      <c r="L90" t="n">
         <v>1504.878220993313</v>
       </c>
-      <c r="L71" t="n">
+      <c r="M90" t="n">
+        <v>122049.3753974104</v>
+      </c>
+      <c r="N90" t="n">
         <v>0.05813776741499421</v>
       </c>
-      <c r="M71" t="n">
+      <c r="O90" t="n">
         <v>0.06708203932499356</v>
       </c>
-      <c r="N71" t="n">
+      <c r="P90" t="n">
         <v>0.1386362146049871</v>
       </c>
-      <c r="O71" t="n">
-        <v>5</v>
-      </c>
-      <c r="P71" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>5</v>
-      </c>
-      <c r="R71" t="n">
-        <v>5</v>
-      </c>
-      <c r="S71" t="n">
-        <v>5</v>
-      </c>
-      <c r="T71" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n"/>
-      <c r="B72" s="1" t="n">
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="n">
+        <v>5</v>
+      </c>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>5</v>
+      </c>
+      <c r="W90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n"/>
+      <c r="B91" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C91" t="n">
         <v>-181.688</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D91" t="n">
         <v>-15.64</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E91" t="n">
         <v>-31020000</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F91" t="n">
+        <v>1429.4</v>
+      </c>
+      <c r="G91" t="n">
         <v>-14.18</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H91" t="n">
         <v>-15.58</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I91" t="n">
         <v>-15.84</v>
       </c>
-      <c r="I72" t="n">
+      <c r="J91" t="n">
         <v>395.9584453197078</v>
       </c>
-      <c r="J72" t="n">
+      <c r="K91" t="n">
         <v>1.028591269649904</v>
       </c>
-      <c r="K72" t="n">
+      <c r="L91" t="n">
         <v>1609968.943799849</v>
       </c>
-      <c r="L72" t="n">
+      <c r="M91" t="n">
+        <v>247.3091183114767</v>
+      </c>
+      <c r="N91" t="n">
         <v>0.2683281572999756</v>
       </c>
-      <c r="M72" t="n">
+      <c r="O91" t="n">
         <v>1.162755348299891</v>
       </c>
-      <c r="N72" t="n">
+      <c r="P91" t="n">
         <v>1.252198067399881</v>
       </c>
-      <c r="O72" t="n">
-        <v>5</v>
-      </c>
-      <c r="P72" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>5</v>
-      </c>
-      <c r="R72" t="n">
-        <v>5</v>
-      </c>
-      <c r="S72" t="n">
-        <v>5</v>
-      </c>
-      <c r="T72" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n"/>
-      <c r="B73" s="1" t="n">
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="n">
+        <v>5</v>
+      </c>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>5</v>
+      </c>
+      <c r="W91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n"/>
+      <c r="B92" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C92" t="n">
         <v>-1024001.658</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D92" t="n">
         <v>-659</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E92" t="n">
         <v>-66080000000000</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F92" t="n">
+        <v>22922.4</v>
+      </c>
+      <c r="G92" t="n">
         <v>-144.4</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H92" t="n">
         <v>-710.2</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I92" t="n">
         <v>-590.2</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J92" t="n">
         <v>572429.6948392395</v>
       </c>
-      <c r="J73" t="n">
+      <c r="K92" t="n">
         <v>4.472135954999588</v>
       </c>
-      <c r="K73" t="n">
+      <c r="L92" t="n">
         <v>8005123359449.247</v>
       </c>
-      <c r="L73" t="n">
+      <c r="M92" t="n">
+        <v>53149.9941843835</v>
+      </c>
+      <c r="N92" t="n">
         <v>0.8944271909999143</v>
       </c>
-      <c r="M73" t="n">
+      <c r="O92" t="n">
         <v>20.57182539299808</v>
       </c>
-      <c r="N73" t="n">
+      <c r="P92" t="n">
         <v>110.0145444929897</v>
       </c>
-      <c r="O73" t="n">
-        <v>5</v>
-      </c>
-      <c r="P73" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>5</v>
-      </c>
-      <c r="R73" t="n">
-        <v>5</v>
-      </c>
-      <c r="S73" t="n">
-        <v>5</v>
-      </c>
-      <c r="T73" t="n">
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="n">
+        <v>5</v>
+      </c>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>5</v>
+      </c>
+      <c r="W92" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:T2"/>
+  <mergeCells count="28">
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="Q2:W2"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A16"/>
@@ -4871,13 +6152,18 @@
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A89:A92"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sorted_result/realdata_summary.xlsx
+++ b/sorted_result/realdata_summary.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T69"/>
+  <dimension ref="A1:T67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,40 +667,40 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>17729.6</v>
+        <v>20000</v>
       </c>
       <c r="D5" t="n">
-        <v>586.2</v>
+        <v>10717.6</v>
       </c>
       <c r="E5" t="n">
-        <v>17729.6</v>
+        <v>20000</v>
       </c>
       <c r="F5" t="n">
-        <v>-6.468000000000001</v>
+        <v>-6.464</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4704</v>
+        <v>-13.1168</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.4704</v>
+        <v>-13.1168</v>
       </c>
       <c r="I5" t="n">
-        <v>10443.33188211502</v>
+        <v>5366.563145999496</v>
       </c>
       <c r="J5" t="n">
-        <v>417.6974981969607</v>
+        <v>23692.48186239677</v>
       </c>
       <c r="K5" t="n">
-        <v>10443.33188211502</v>
+        <v>5366.563145999496</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04024922359499621</v>
+        <v>0.03130495168499636</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00134164078649983</v>
+        <v>28.27686842986684</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00134164078649983</v>
+        <v>28.27686842986684</v>
       </c>
       <c r="O5" t="n">
         <v>5</v>
@@ -730,7 +730,7 @@
         <v>-7488</v>
       </c>
       <c r="D6" t="n">
-        <v>-3606</v>
+        <v>97800</v>
       </c>
       <c r="E6" t="n">
         <v>-7488</v>
@@ -748,7 +748,7 @@
         <v>6211.796841494416</v>
       </c>
       <c r="J6" t="n">
-        <v>751.3188404399293</v>
+        <v>342565.6141529678</v>
       </c>
       <c r="K6" t="n">
         <v>6211.796841494416</v>
@@ -790,7 +790,7 @@
         <v>-41200000</v>
       </c>
       <c r="D7" t="n">
-        <v>-2684000</v>
+        <v>-1734000000</v>
       </c>
       <c r="E7" t="n">
         <v>-41200000</v>
@@ -808,7 +808,7 @@
         <v>6484597.134749391</v>
       </c>
       <c r="J7" t="n">
-        <v>125219.8067399883</v>
+        <v>58137767.41499452</v>
       </c>
       <c r="K7" t="n">
         <v>6484597.134749391</v>
@@ -844,65 +844,65 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>adult</t>
+          <t>australian</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>-677.4</v>
+        <v>-179600</v>
       </c>
       <c r="D8" t="n">
-        <v>-114.08</v>
+        <v>-1304000</v>
       </c>
       <c r="E8" t="n">
-        <v>-677.4</v>
+        <v>-179600</v>
       </c>
       <c r="F8" t="n">
-        <v>-4.342000000000001</v>
+        <v>-23.32</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.09707</v>
+        <v>-0.0263</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.09707</v>
+        <v>-0.0263</v>
       </c>
       <c r="I8" t="n">
-        <v>82.2627227579756</v>
+        <v>5366.563145999496</v>
       </c>
       <c r="J8" t="n">
-        <v>36.31775812953707</v>
+        <v>125219.8067399882</v>
       </c>
       <c r="K8" t="n">
-        <v>82.2627227579756</v>
+        <v>5366.563145999496</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004216370213557645</v>
+        <v>0.2683281572999747</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0001337493509849274</v>
+        <v>0.0002236067977499789</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0001337493509849274</v>
+        <v>0.0002236067977499789</v>
       </c>
       <c r="O8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -910,75 +910,101 @@
       <c r="B9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>-56680000000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-98180000000000</v>
+      </c>
       <c r="E9" t="n">
-        <v>-2950000000000000</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>-56680000000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-638.4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.002332</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.002332</v>
+      </c>
+      <c r="I9" t="n">
+        <v>42664177010.69598</v>
+      </c>
+      <c r="J9" t="n">
+        <v>178885438199.9821</v>
+      </c>
       <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+        <v>42664177010.69598</v>
+      </c>
+      <c r="L9" t="n">
+        <v>25.93838853899757</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4.472135954999769e-06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.472135954999769e-06</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
       <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>australian</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>-179600</v>
+        <v>-129120000</v>
       </c>
       <c r="D10" t="n">
-        <v>-18620</v>
+        <v>-12021680000000</v>
       </c>
       <c r="E10" t="n">
-        <v>-179600</v>
+        <v>-129120000</v>
       </c>
       <c r="F10" t="n">
-        <v>-23.32</v>
+        <v>-2904</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0263</v>
+        <v>-0.0009708</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.0263</v>
+        <v>-0.0009708</v>
       </c>
       <c r="I10" t="n">
-        <v>5366.563145999496</v>
+        <v>270497143.2381496</v>
       </c>
       <c r="J10" t="n">
-        <v>491.9349550499539</v>
+        <v>26764794542121.93</v>
       </c>
       <c r="K10" t="n">
-        <v>5366.563145999496</v>
+        <v>270497143.2381496</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2683281572999747</v>
+        <v>165.4690303349845</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0002236067977499789</v>
+        <v>4.472135954999062e-07</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0002236067977499789</v>
+        <v>4.472135954999062e-07</v>
       </c>
       <c r="O10" t="n">
         <v>5</v>
@@ -1000,45 +1026,49 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>breast-cancer</t>
+        </is>
+      </c>
       <c r="B11" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>-56680000000</v>
+        <v>-156000000000000</v>
       </c>
       <c r="D11" t="n">
-        <v>-1528000</v>
+        <v>-4954000000</v>
       </c>
       <c r="E11" t="n">
-        <v>-56680000000</v>
+        <v>-1294000000000</v>
       </c>
       <c r="F11" t="n">
-        <v>-638.4</v>
+        <v>-13.16</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.002332</v>
+        <v>-0.09059999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.002332</v>
+        <v>-0.09059999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>42664177010.69598</v>
+        <v>73790243257493.06</v>
       </c>
       <c r="J11" t="n">
-        <v>152052.6224699857</v>
+        <v>31304951.68499699</v>
       </c>
       <c r="K11" t="n">
-        <v>42664177010.69598</v>
+        <v>98386991009.99072</v>
       </c>
       <c r="L11" t="n">
-        <v>25.93838853899757</v>
+        <v>0.1341640786499873</v>
       </c>
       <c r="M11" t="n">
-        <v>4.472135954999769e-06</v>
+        <v>0.0002236067977499784</v>
       </c>
       <c r="N11" t="n">
-        <v>4.472135954999769e-06</v>
+        <v>0.0002236067977499784</v>
       </c>
       <c r="O11" t="n">
         <v>5</v>
@@ -1062,43 +1092,43 @@
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>-129120000</v>
+        <v>-9.6800000000234e+42</v>
       </c>
       <c r="D12" t="n">
-        <v>-495200</v>
+        <v>-3.072703999999999e+23</v>
       </c>
       <c r="E12" t="n">
-        <v>-129120000</v>
+        <v>-2.30856e+27</v>
       </c>
       <c r="F12" t="n">
-        <v>-2904</v>
+        <v>-493.4</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0009708</v>
+        <v>-0.0306</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.0009708</v>
+        <v>-0.0306</v>
       </c>
       <c r="I12" t="n">
-        <v>270497143.2381496</v>
+        <v>5.411284505497167e+42</v>
       </c>
       <c r="J12" t="n">
-        <v>762946.3939229283</v>
+        <v>1.715726014863678e+23</v>
       </c>
       <c r="K12" t="n">
-        <v>270497143.2381496</v>
+        <v>5.138171162777667e+27</v>
       </c>
       <c r="L12" t="n">
-        <v>165.4690303349845</v>
+        <v>8.049844718999244</v>
       </c>
       <c r="M12" t="n">
-        <v>4.472135954999062e-07</v>
+        <v>0.001341640786499875</v>
       </c>
       <c r="N12" t="n">
-        <v>4.472135954999062e-07</v>
+        <v>0.001341640786499875</v>
       </c>
       <c r="O12" t="n">
         <v>5</v>
@@ -1120,49 +1150,45 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>breast-cancer</t>
-        </is>
-      </c>
+      <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>-156000000000000</v>
+        <v>-1.792e+45</v>
       </c>
       <c r="D13" t="n">
-        <v>-137360000</v>
+        <v>-1.508e+33</v>
       </c>
       <c r="E13" t="n">
-        <v>-1294000000000</v>
+        <v>-1.393312e+41</v>
       </c>
       <c r="F13" t="n">
-        <v>-13.16</v>
+        <v>-5344</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.09059999999999999</v>
+        <v>-0.01246</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.09059999999999999</v>
+        <v>-0.01246</v>
       </c>
       <c r="I13" t="n">
-        <v>73790243257493.06</v>
+        <v>1.001758453919906e+45</v>
       </c>
       <c r="J13" t="n">
-        <v>26027831.25809755</v>
+        <v>8.899550550449164e+32</v>
       </c>
       <c r="K13" t="n">
-        <v>98386991009.99072</v>
+        <v>7.75217934983447e+40</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1341640786499873</v>
+        <v>76.02631123499292</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0002236067977499784</v>
+        <v>0.0003130495168499703</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0002236067977499784</v>
+        <v>0.0003130495168499703</v>
       </c>
       <c r="O13" t="n">
         <v>5</v>
@@ -1184,45 +1210,49 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>cardio</t>
+        </is>
+      </c>
       <c r="B14" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>-9.6800000000234e+42</v>
+        <v>-1690000000000000</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.582e+17</v>
+        <v>-3.236e+17</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.30856e+27</v>
+        <v>-1690000000000000</v>
       </c>
       <c r="F14" t="n">
-        <v>-493.4</v>
+        <v>-40.12</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0306</v>
+        <v>-0.15</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.0306</v>
+        <v>-0.15</v>
       </c>
       <c r="I14" t="n">
-        <v>5.411284505497167e+42</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.980200999949625e+16</v>
+        <v>3.488266044899672e+16</v>
       </c>
       <c r="K14" t="n">
-        <v>5.138171162777667e+27</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>8.049844718999244</v>
+        <v>0.4024922359499641</v>
       </c>
       <c r="M14" t="n">
-        <v>0.001341640786499875</v>
+        <v>0.002236067977499794</v>
       </c>
       <c r="N14" t="n">
-        <v>0.001341640786499875</v>
+        <v>0.002236067977499794</v>
       </c>
       <c r="O14" t="n">
         <v>5</v>
@@ -1246,43 +1276,43 @@
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.792e+45</v>
+        <v>-2.11226e+30</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.60288e+25</v>
+        <v>-2.382e+30</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.393312e+41</v>
+        <v>-2.11226e+30</v>
       </c>
       <c r="F15" t="n">
-        <v>-5344</v>
+        <v>-5086</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01246</v>
+        <v>-0.2148</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.01246</v>
+        <v>-0.2148</v>
       </c>
       <c r="I15" t="n">
-        <v>1.001758453919906e+45</v>
+        <v>1.180062514445739e+30</v>
       </c>
       <c r="J15" t="n">
-        <v>7.992333050617949e+25</v>
+        <v>5.769055381949457e+29</v>
       </c>
       <c r="K15" t="n">
-        <v>7.75217934983447e+40</v>
+        <v>1.180062514445739e+30</v>
       </c>
       <c r="L15" t="n">
-        <v>76.02631123499292</v>
+        <v>35.7770876399967</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0003130495168499703</v>
+        <v>0.0004472135954999568</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0003130495168499703</v>
+        <v>0.0004472135954999568</v>
       </c>
       <c r="O15" t="n">
         <v>5</v>
@@ -1304,49 +1334,45 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>cardio</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-1690000000000000</v>
+        <v>-1.056e+44</v>
       </c>
       <c r="D16" t="n">
-        <v>-1618.2</v>
+        <v>-7.912e+43</v>
       </c>
       <c r="E16" t="n">
-        <v>-1690000000000000</v>
+        <v>-1.056e+44</v>
       </c>
       <c r="F16" t="n">
-        <v>-40.12</v>
+        <v>-1050000</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.15</v>
+        <v>-0.7332</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.15</v>
+        <v>-0.7332</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>5.903219460599445e+43</v>
       </c>
       <c r="J16" t="n">
-        <v>473.5991976344555</v>
+        <v>2.956081866254723e+43</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>5.903219460599445e+43</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4024922359499641</v>
+        <v>22360.67977499791</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002236067977499794</v>
+        <v>0.0160996894379985</v>
       </c>
       <c r="N16" t="n">
-        <v>0.002236067977499794</v>
+        <v>0.0160996894379985</v>
       </c>
       <c r="O16" t="n">
         <v>5</v>
@@ -1368,45 +1394,49 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n"/>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
       <c r="B17" s="1" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.11226e+30</v>
+        <v>-42980</v>
       </c>
       <c r="D17" t="n">
-        <v>-13660000</v>
+        <v>-42980</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.11226e+30</v>
+        <v>-3868</v>
       </c>
       <c r="F17" t="n">
-        <v>-5086</v>
+        <v>-24.84</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2148</v>
+        <v>-0.009682</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.2148</v>
+        <v>-0.009682</v>
       </c>
       <c r="I17" t="n">
-        <v>1.180062514445739e+30</v>
+        <v>10554.24085379901</v>
       </c>
       <c r="J17" t="n">
-        <v>7960401.999899251</v>
+        <v>10554.24085379901</v>
       </c>
       <c r="K17" t="n">
-        <v>1.180062514445739e+30</v>
+        <v>608.2104898799428</v>
       </c>
       <c r="L17" t="n">
-        <v>35.7770876399967</v>
+        <v>0.3130495168499685</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0004472135954999568</v>
+        <v>0.0001609968943799846</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0004472135954999568</v>
+        <v>0.0001609968943799846</v>
       </c>
       <c r="O17" t="n">
         <v>5</v>
@@ -1430,43 +1460,43 @@
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.056e+44</v>
+        <v>-5141000</v>
       </c>
       <c r="D18" t="n">
-        <v>-5884000000</v>
+        <v>-5141000</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.056e+44</v>
+        <v>-1780</v>
       </c>
       <c r="F18" t="n">
-        <v>-1050000</v>
+        <v>-55.67999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.7332</v>
+        <v>-0.001136</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.7332</v>
+        <v>-0.001136</v>
       </c>
       <c r="I18" t="n">
-        <v>5.903219460599445e+43</v>
+        <v>2613963.465697254</v>
       </c>
       <c r="J18" t="n">
-        <v>9847643372.909073</v>
+        <v>2613963.465697254</v>
       </c>
       <c r="K18" t="n">
-        <v>5.903219460599445e+43</v>
+        <v>1319.280106724876</v>
       </c>
       <c r="L18" t="n">
-        <v>22360.67977499791</v>
+        <v>3.622430123549656</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0160996894379985</v>
+        <v>8.944271909999204e-06</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0160996894379985</v>
+        <v>8.944271909999204e-06</v>
       </c>
       <c r="O18" t="n">
         <v>5</v>
@@ -1488,49 +1518,45 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>credit</t>
-        </is>
-      </c>
+      <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C19" t="n">
-        <v>-42980</v>
+        <v>-433420000</v>
       </c>
       <c r="D19" t="n">
-        <v>-558.6</v>
+        <v>-433420000</v>
       </c>
       <c r="E19" t="n">
-        <v>-3868</v>
+        <v>-23200</v>
       </c>
       <c r="F19" t="n">
-        <v>-24.84</v>
+        <v>-0.07696</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.009682</v>
+        <v>-0.0001772</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.009682</v>
+        <v>-0.0001772</v>
       </c>
       <c r="I19" t="n">
-        <v>10554.24085379901</v>
+        <v>236084057.0644278</v>
       </c>
       <c r="J19" t="n">
-        <v>175.3077294359835</v>
+        <v>236084057.0644278</v>
       </c>
       <c r="K19" t="n">
-        <v>608.2104898799428</v>
+        <v>24373.14095474771</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3130495168499685</v>
+        <v>0.0003130495168499744</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0001609968943799846</v>
+        <v>1.788854381999826e-06</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0001609968943799846</v>
+        <v>1.788854381999826e-06</v>
       </c>
       <c r="O19" t="n">
         <v>5</v>
@@ -1552,45 +1578,49 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
       <c r="B20" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>-5141000</v>
+        <v>-740.4</v>
       </c>
       <c r="D20" t="n">
-        <v>-30.72</v>
+        <v>2536176</v>
       </c>
       <c r="E20" t="n">
-        <v>-1780</v>
+        <v>-740.4</v>
       </c>
       <c r="F20" t="n">
-        <v>-55.67999999999999</v>
+        <v>-8.266</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.001136</v>
+        <v>-1.124</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.001136</v>
+        <v>-1.124</v>
       </c>
       <c r="I20" t="n">
-        <v>2613963.465697254</v>
+        <v>647.565286283939</v>
       </c>
       <c r="J20" t="n">
-        <v>8.005123359449247</v>
+        <v>5681750.343835955</v>
       </c>
       <c r="K20" t="n">
-        <v>1319.280106724876</v>
+        <v>647.565286283939</v>
       </c>
       <c r="L20" t="n">
-        <v>3.622430123549656</v>
+        <v>0.008944271909998688</v>
       </c>
       <c r="M20" t="n">
-        <v>8.944271909999204e-06</v>
+        <v>0.05366563145999497</v>
       </c>
       <c r="N20" t="n">
-        <v>8.944271909999204e-06</v>
+        <v>0.05366563145999497</v>
       </c>
       <c r="O20" t="n">
         <v>5</v>
@@ -1614,43 +1644,43 @@
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>-433420000</v>
+        <v>-9176</v>
       </c>
       <c r="D21" t="n">
-        <v>-108.4</v>
+        <v>-93600</v>
       </c>
       <c r="E21" t="n">
-        <v>-23200</v>
+        <v>-9176</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.07696</v>
+        <v>-52.08000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.0001772</v>
+        <v>-1.678</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.0001772</v>
+        <v>-1.678</v>
       </c>
       <c r="I21" t="n">
-        <v>236084057.0644278</v>
+        <v>1019.646997739904</v>
       </c>
       <c r="J21" t="n">
-        <v>1.341640786499873</v>
+        <v>165692.6371327344</v>
       </c>
       <c r="K21" t="n">
-        <v>24373.14095474771</v>
+        <v>1019.646997739904</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0003130495168499744</v>
+        <v>6.439875775199397</v>
       </c>
       <c r="M21" t="n">
-        <v>1.788854381999826e-06</v>
+        <v>0.04919349550499534</v>
       </c>
       <c r="N21" t="n">
-        <v>1.788854381999826e-06</v>
+        <v>0.04919349550499534</v>
       </c>
       <c r="O21" t="n">
         <v>5</v>
@@ -1672,49 +1702,45 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>-740.4</v>
+        <v>-42228000</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.302</v>
+        <v>-700005800000</v>
       </c>
       <c r="E22" t="n">
-        <v>-740.4</v>
+        <v>-42228000</v>
       </c>
       <c r="F22" t="n">
-        <v>-8.266</v>
+        <v>-641.8</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.124</v>
+        <v>-5.125999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.124</v>
+        <v>-5.125999999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>647.565286283939</v>
+        <v>22968890.26487784</v>
       </c>
       <c r="J22" t="n">
-        <v>9.387013369544118</v>
+        <v>391298926868.1937</v>
       </c>
       <c r="K22" t="n">
-        <v>647.565286283939</v>
+        <v>22968890.26487784</v>
       </c>
       <c r="L22" t="n">
-        <v>0.008944271909998688</v>
+        <v>38.46036921299638</v>
       </c>
       <c r="M22" t="n">
-        <v>0.05366563145999497</v>
+        <v>0.4114365078599612</v>
       </c>
       <c r="N22" t="n">
-        <v>0.05366563145999497</v>
+        <v>0.4114365078599612</v>
       </c>
       <c r="O22" t="n">
         <v>5</v>
@@ -1736,45 +1762,49 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n"/>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
       <c r="B23" s="1" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C23" t="n">
-        <v>-9176</v>
+        <v>-18960</v>
       </c>
       <c r="D23" t="n">
-        <v>-1864</v>
+        <v>-196900</v>
       </c>
       <c r="E23" t="n">
-        <v>-9176</v>
+        <v>-18960</v>
       </c>
       <c r="F23" t="n">
-        <v>-52.08000000000001</v>
+        <v>-1.526</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.678</v>
+        <v>-0.10514</v>
       </c>
       <c r="H23" t="n">
-        <v>-1.678</v>
+        <v>-0.10514</v>
       </c>
       <c r="I23" t="n">
-        <v>1019.646997739904</v>
+        <v>1431.083505599866</v>
       </c>
       <c r="J23" t="n">
-        <v>143.1083505599866</v>
+        <v>65069.57814524388</v>
       </c>
       <c r="K23" t="n">
-        <v>1019.646997739904</v>
+        <v>1431.083505599866</v>
       </c>
       <c r="L23" t="n">
-        <v>6.439875775199397</v>
+        <v>0.008944271909999134</v>
       </c>
       <c r="M23" t="n">
-        <v>0.04919349550499534</v>
+        <v>0.01086729037064899</v>
       </c>
       <c r="N23" t="n">
-        <v>0.04919349550499534</v>
+        <v>0.01086729037064899</v>
       </c>
       <c r="O23" t="n">
         <v>5</v>
@@ -1798,43 +1828,43 @@
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>-42228000</v>
+        <v>-486000000</v>
       </c>
       <c r="D24" t="n">
-        <v>-105400</v>
+        <v>-14460000000</v>
       </c>
       <c r="E24" t="n">
-        <v>-42228000</v>
+        <v>-486000000</v>
       </c>
       <c r="F24" t="n">
-        <v>-641.8</v>
+        <v>-70140000</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.125999999999999</v>
+        <v>-1.03</v>
       </c>
       <c r="H24" t="n">
-        <v>-5.125999999999999</v>
+        <v>-1.03</v>
       </c>
       <c r="I24" t="n">
-        <v>22968890.26487784</v>
+        <v>210190389.8849803</v>
       </c>
       <c r="J24" t="n">
-        <v>3130.495168499705</v>
+        <v>313049516.8499707</v>
       </c>
       <c r="K24" t="n">
-        <v>22968890.26487784</v>
+        <v>210190389.8849803</v>
       </c>
       <c r="L24" t="n">
-        <v>38.46036921299638</v>
+        <v>5947940.820149439</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4114365078599612</v>
+        <v>0.06708203932499369</v>
       </c>
       <c r="N24" t="n">
-        <v>0.4114365078599612</v>
+        <v>0.06708203932499369</v>
       </c>
       <c r="O24" t="n">
         <v>5</v>
@@ -1856,49 +1886,45 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
+      <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C25" t="n">
-        <v>-18960</v>
+        <v>-17900000000000</v>
       </c>
       <c r="D25" t="n">
-        <v>-5848</v>
+        <v>-347200000000000</v>
       </c>
       <c r="E25" t="n">
-        <v>-18960</v>
+        <v>-17900000000000</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.526</v>
+        <v>-1120400000000</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.10514</v>
+        <v>-82.38</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.10514</v>
+        <v>-82.38</v>
       </c>
       <c r="I25" t="n">
-        <v>1431.083505599866</v>
+        <v>7826237921249.264</v>
       </c>
       <c r="J25" t="n">
-        <v>1024.119133694904</v>
+        <v>728287340271681.5</v>
       </c>
       <c r="K25" t="n">
-        <v>1431.083505599866</v>
+        <v>7826237921249.264</v>
       </c>
       <c r="L25" t="n">
-        <v>0.008944271909999134</v>
+        <v>843892054708.4205</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01086729037064899</v>
+        <v>2.728002932549742</v>
       </c>
       <c r="N25" t="n">
-        <v>0.01086729037064899</v>
+        <v>2.728002932549742</v>
       </c>
       <c r="O25" t="n">
         <v>5</v>
@@ -1920,45 +1946,49 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n"/>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>ionosphere</t>
+        </is>
+      </c>
       <c r="B26" s="1" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C26" t="n">
-        <v>-486000000</v>
+        <v>-333.6</v>
       </c>
       <c r="D26" t="n">
-        <v>-29420000</v>
+        <v>-24664</v>
       </c>
       <c r="E26" t="n">
-        <v>-486000000</v>
+        <v>-333.6</v>
       </c>
       <c r="F26" t="n">
-        <v>-70140000</v>
+        <v>-0.09952</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.03</v>
+        <v>-6.694000000000001e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.03</v>
+        <v>-6.694000000000001e-05</v>
       </c>
       <c r="I26" t="n">
-        <v>210190389.8849803</v>
+        <v>76.92073842599277</v>
       </c>
       <c r="J26" t="n">
-        <v>5098234.988699521</v>
+        <v>44909.18926010578</v>
       </c>
       <c r="K26" t="n">
-        <v>210190389.8849803</v>
+        <v>76.92073842599277</v>
       </c>
       <c r="L26" t="n">
-        <v>5947940.820149439</v>
+        <v>0.004740464112299553</v>
       </c>
       <c r="M26" t="n">
-        <v>0.06708203932499369</v>
+        <v>8.854829190899164e-06</v>
       </c>
       <c r="N26" t="n">
-        <v>0.06708203932499369</v>
+        <v>8.854829190899164e-06</v>
       </c>
       <c r="O26" t="n">
         <v>5</v>
@@ -1982,43 +2012,43 @@
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C27" t="n">
-        <v>-17900000000000</v>
+        <v>-430560000</v>
       </c>
       <c r="D27" t="n">
-        <v>-817600000000</v>
+        <v>-69360000000</v>
       </c>
       <c r="E27" t="n">
-        <v>-17900000000000</v>
+        <v>-430560000</v>
       </c>
       <c r="F27" t="n">
-        <v>-1120400000000</v>
+        <v>-0.4048</v>
       </c>
       <c r="G27" t="n">
-        <v>-82.38</v>
+        <v>-1.484e-06</v>
       </c>
       <c r="H27" t="n">
-        <v>-82.38</v>
+        <v>-1.484e-06</v>
       </c>
       <c r="I27" t="n">
-        <v>7826237921249.264</v>
+        <v>231298871.5925782</v>
       </c>
       <c r="J27" t="n">
-        <v>627440674486.4409</v>
+        <v>37208171145.5965</v>
       </c>
       <c r="K27" t="n">
-        <v>7826237921249.264</v>
+        <v>231298871.5925782</v>
       </c>
       <c r="L27" t="n">
-        <v>843892054708.4205</v>
+        <v>0.02504396134799763</v>
       </c>
       <c r="M27" t="n">
-        <v>2.728002932549742</v>
+        <v>1.431083505599867e-07</v>
       </c>
       <c r="N27" t="n">
-        <v>2.728002932549742</v>
+        <v>1.431083505599867e-07</v>
       </c>
       <c r="O27" t="n">
         <v>5</v>
@@ -2040,109 +2070,109 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>ionosphere</t>
-        </is>
-      </c>
+      <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-22088000000000</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-6.8640966e+21</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-22088000000000</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-1.894</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-1.0536e-07</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-1.0536e-07</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8076677534729.24</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.836876645223013e+21</v>
+      </c>
+      <c r="K28" t="n">
+        <v>8076677534729.24</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.1028591269649903</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2.160041666264797e-08</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.160041666264797e-08</v>
+      </c>
+      <c r="O28" t="n">
+        <v>5</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>letter</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C28" t="n">
-        <v>-3654.4</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-20.14</v>
-      </c>
-      <c r="E28" t="n">
-        <v>-3654.4</v>
-      </c>
-      <c r="F28" t="n">
-        <v>-0.09931999999999999</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-6.794e-05</v>
-      </c>
-      <c r="H28" t="n">
-        <v>-6.794e-05</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7348.613801255309</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.1341640786499884</v>
-      </c>
-      <c r="K28" t="n">
-        <v>7348.613801255309</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.004293250516799594</v>
-      </c>
-      <c r="M28" t="n">
-        <v>6.618761213399378e-06</v>
-      </c>
-      <c r="N28" t="n">
-        <v>6.618761213399378e-06</v>
-      </c>
-      <c r="O28" t="n">
-        <v>5</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
-      <c r="T28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="n">
-        <v>17</v>
-      </c>
       <c r="C29" t="n">
-        <v>-430560000</v>
+        <v>-323200</v>
       </c>
       <c r="D29" t="n">
-        <v>-234180</v>
+        <v>-2739020000</v>
       </c>
       <c r="E29" t="n">
-        <v>-430560000</v>
+        <v>-323200</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.4048</v>
+        <v>-309.6</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.484e-06</v>
+        <v>-0.008855999999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.484e-06</v>
+        <v>-0.008855999999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>231298871.5925782</v>
+        <v>17441.33022449836</v>
       </c>
       <c r="J29" t="n">
-        <v>82332.02293154225</v>
+        <v>1522717571.317807</v>
       </c>
       <c r="K29" t="n">
-        <v>231298871.5925782</v>
+        <v>17441.33022449836</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02504396134799763</v>
+        <v>12.52198067399882</v>
       </c>
       <c r="M29" t="n">
-        <v>1.431083505599867e-07</v>
+        <v>0.0001431083505599868</v>
       </c>
       <c r="N29" t="n">
-        <v>1.431083505599867e-07</v>
+        <v>0.0001431083505599868</v>
       </c>
       <c r="O29" t="n">
         <v>5</v>
@@ -2166,43 +2196,43 @@
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="1" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C30" t="n">
-        <v>-22088000000000</v>
+        <v>-466460000000</v>
       </c>
       <c r="D30" t="n">
-        <v>-2820800000</v>
+        <v>-2.3221e+17</v>
       </c>
       <c r="E30" t="n">
-        <v>-22088000000000</v>
+        <v>-466460000000</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.894</v>
+        <v>-621800</v>
       </c>
       <c r="G30" t="n">
-        <v>-1.0536e-07</v>
+        <v>-0.004422000000000001</v>
       </c>
       <c r="H30" t="n">
-        <v>-1.0536e-07</v>
+        <v>-0.004422000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>8076677534729.24</v>
+        <v>253883158165.3261</v>
       </c>
       <c r="J30" t="n">
-        <v>6081657685.203928</v>
+        <v>1.269863004422131e+17</v>
       </c>
       <c r="K30" t="n">
-        <v>8076677534729.24</v>
+        <v>253883158165.3261</v>
       </c>
       <c r="L30" t="n">
-        <v>0.1028591269649903</v>
+        <v>85417.79674049196</v>
       </c>
       <c r="M30" t="n">
-        <v>2.160041666264797e-08</v>
+        <v>9.391485505499107e-05</v>
       </c>
       <c r="N30" t="n">
-        <v>2.160041666264797e-08</v>
+        <v>9.391485505499107e-05</v>
       </c>
       <c r="O30" t="n">
         <v>5</v>
@@ -2224,49 +2254,45 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>letter</t>
-        </is>
-      </c>
+      <c r="A31" s="1" t="n"/>
       <c r="B31" s="1" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C31" t="n">
-        <v>-323200</v>
+        <v>-1.0960226e+21</v>
       </c>
       <c r="D31" t="n">
-        <v>-1018.4</v>
+        <v>-5.803999999999999e+25</v>
       </c>
       <c r="E31" t="n">
-        <v>-323200</v>
+        <v>-1.0960226e+21</v>
       </c>
       <c r="F31" t="n">
-        <v>-309.6</v>
+        <v>-6712000000</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.008855999999999999</v>
+        <v>-0.01024</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.008855999999999999</v>
+        <v>-0.01024</v>
       </c>
       <c r="I31" t="n">
-        <v>17441.33022449836</v>
+        <v>6.12632090698651e+20</v>
       </c>
       <c r="J31" t="n">
-        <v>67.97646651599362</v>
+        <v>8.049844718999245e+23</v>
       </c>
       <c r="K31" t="n">
-        <v>17441.33022449836</v>
+        <v>6.12632090698651e+20</v>
       </c>
       <c r="L31" t="n">
-        <v>12.52198067399882</v>
+        <v>330938060.6699689</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0001431083505599868</v>
+        <v>0.0003130495168499712</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0001431083505599868</v>
+        <v>0.0003130495168499712</v>
       </c>
       <c r="O31" t="n">
         <v>5</v>
@@ -2288,45 +2314,49 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n"/>
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>lympho</t>
+        </is>
+      </c>
       <c r="B32" s="1" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C32" t="n">
-        <v>-466460000000</v>
+        <v>-45.36</v>
       </c>
       <c r="D32" t="n">
-        <v>-70050000</v>
+        <v>48.14</v>
       </c>
       <c r="E32" t="n">
-        <v>-466460000000</v>
+        <v>-45.36</v>
       </c>
       <c r="F32" t="n">
-        <v>-621800</v>
+        <v>-0.10244</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.004422000000000001</v>
+        <v>-0.005197999999999999</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.004422000000000001</v>
+        <v>-0.005197999999999999</v>
       </c>
       <c r="I32" t="n">
-        <v>253883158165.3261</v>
+        <v>11.49338940434892</v>
       </c>
       <c r="J32" t="n">
-        <v>35665284.24112164</v>
+        <v>77.50211610014271</v>
       </c>
       <c r="K32" t="n">
-        <v>253883158165.3261</v>
+        <v>11.49338940434892</v>
       </c>
       <c r="L32" t="n">
-        <v>85417.79674049196</v>
+        <v>0.01466860593239862</v>
       </c>
       <c r="M32" t="n">
-        <v>9.391485505499107e-05</v>
+        <v>0.0003085773808949709</v>
       </c>
       <c r="N32" t="n">
-        <v>9.391485505499107e-05</v>
+        <v>0.0003085773808949709</v>
       </c>
       <c r="O32" t="n">
         <v>5</v>
@@ -2350,43 +2380,43 @@
     <row r="33">
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.0960226e+21</v>
+        <v>-7172</v>
       </c>
       <c r="D33" t="n">
-        <v>-11930000000000</v>
+        <v>-102300</v>
       </c>
       <c r="E33" t="n">
-        <v>-1.0960226e+21</v>
+        <v>-7172</v>
       </c>
       <c r="F33" t="n">
-        <v>-6712000000</v>
+        <v>-0.1118</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.01024</v>
+        <v>-0.0003754</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.01024</v>
+        <v>-0.0003754</v>
       </c>
       <c r="I33" t="n">
-        <v>6.12632090698651e+20</v>
+        <v>15220.91472284107</v>
       </c>
       <c r="J33" t="n">
-        <v>1274558747174.88</v>
+        <v>35106.2672467467</v>
       </c>
       <c r="K33" t="n">
-        <v>6.12632090698651e+20</v>
+        <v>15220.91472284107</v>
       </c>
       <c r="L33" t="n">
-        <v>330938060.6699689</v>
+        <v>0.004919349550499542</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0003130495168499712</v>
+        <v>1.25219806739988e-05</v>
       </c>
       <c r="N33" t="n">
-        <v>0.0003130495168499712</v>
+        <v>1.25219806739988e-05</v>
       </c>
       <c r="O33" t="n">
         <v>5</v>
@@ -2408,49 +2438,45 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>lympho</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C34" t="n">
-        <v>-42.076</v>
+        <v>-1102.86</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.63</v>
+        <v>-24360</v>
       </c>
       <c r="E34" t="n">
-        <v>-42.076</v>
+        <v>-1102.86</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1098</v>
+        <v>-0.07286000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.005214000000000001</v>
+        <v>-8.02e-05</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.005214000000000001</v>
+        <v>-8.02e-05</v>
       </c>
       <c r="I34" t="n">
-        <v>18.83663664245823</v>
+        <v>597.3431995092938</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4695742752749559</v>
+        <v>357.7708763999666</v>
       </c>
       <c r="K34" t="n">
-        <v>18.83663664245823</v>
+        <v>597.3431995092938</v>
       </c>
       <c r="L34" t="n">
-        <v>0.001788854381999834</v>
+        <v>0.008631222393149184</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0003443544685349674</v>
+        <v>2.683281572999743e-06</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0003443544685349674</v>
+        <v>2.683281572999743e-06</v>
       </c>
       <c r="O34" t="n">
         <v>5</v>
@@ -2472,45 +2498,49 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n"/>
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>musk</t>
+        </is>
+      </c>
       <c r="B35" s="1" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C35" t="n">
-        <v>-7172</v>
+        <v>-3.520000000000062e+118</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.39</v>
+        <v>-3.944000000000124e+138</v>
       </c>
       <c r="E35" t="n">
-        <v>-7172</v>
+        <v>-3.520000000000062e+118</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.1118</v>
+        <v>-3.586e+25</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.0003754</v>
+        <v>-2.218e-22</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.0003754</v>
+        <v>-2.218e-22</v>
       </c>
       <c r="I35" t="n">
-        <v>15220.91472284107</v>
+        <v>7.870959280799227e+118</v>
       </c>
       <c r="J35" t="n">
-        <v>0.201246117974981</v>
+        <v>2.204763025814516e+138</v>
       </c>
       <c r="K35" t="n">
-        <v>15220.91472284107</v>
+        <v>7.870959280799227e+118</v>
       </c>
       <c r="L35" t="n">
-        <v>0.004919349550499542</v>
+        <v>3.130495168499701e+23</v>
       </c>
       <c r="M35" t="n">
-        <v>1.25219806739988e-05</v>
+        <v>2.414953415699774e-23</v>
       </c>
       <c r="N35" t="n">
-        <v>1.25219806739988e-05</v>
+        <v>2.414953415699774e-23</v>
       </c>
       <c r="O35" t="n">
         <v>5</v>
@@ -2534,43 +2564,49 @@
     <row r="36">
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="n">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C36" t="n">
-        <v>-1102.86</v>
+        <v>-1.0972e+184</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1996</v>
+        <v>-1.1841138e+236</v>
       </c>
       <c r="E36" t="n">
-        <v>-1102.86</v>
+        <v>-1.0972e+184</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.07286000000000001</v>
+        <v>-7.94e+45</v>
       </c>
       <c r="G36" t="n">
-        <v>-8.02e-05</v>
+        <v>-1.43e-27</v>
       </c>
       <c r="H36" t="n">
-        <v>-8.02e-05</v>
-      </c>
-      <c r="I36" t="n">
-        <v>597.3431995092938</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.08631222393149188</v>
-      </c>
-      <c r="K36" t="n">
-        <v>597.3431995092938</v>
+        <v>-1.43e-27</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="L36" t="n">
-        <v>0.008631222393149184</v>
+        <v>2.236067977499738e+43</v>
       </c>
       <c r="M36" t="n">
-        <v>2.683281572999743e-06</v>
+        <v>2.236067977499788e-28</v>
       </c>
       <c r="N36" t="n">
-        <v>2.683281572999743e-06</v>
+        <v>2.236067977499788e-28</v>
       </c>
       <c r="O36" t="n">
         <v>5</v>
@@ -2592,49 +2628,45 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>musk</t>
-        </is>
-      </c>
+      <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="n">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="C37" t="n">
-        <v>-3.520000000000062e+118</v>
-      </c>
-      <c r="D37" t="n">
-        <v>-988400000000000</v>
-      </c>
+        <v>-3.54e+281</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>-3.520000000000062e+118</v>
+        <v>-3.54e+281</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.586e+25</v>
+        <v>-4.85e+65</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.218e-22</v>
+        <v>-2.626e-29</v>
       </c>
       <c r="H37" t="n">
-        <v>-2.218e-22</v>
-      </c>
-      <c r="I37" t="n">
-        <v>7.870959280799227e+118</v>
-      </c>
-      <c r="J37" t="n">
-        <v>2074847476322055</v>
-      </c>
-      <c r="K37" t="n">
-        <v>7.870959280799227e+118</v>
+        <v>-2.626e-29</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="L37" t="n">
-        <v>3.130495168499701e+23</v>
+        <v>8.049844718999242e+64</v>
       </c>
       <c r="M37" t="n">
-        <v>2.414953415699774e-23</v>
+        <v>1.341640786499887e-31</v>
       </c>
       <c r="N37" t="n">
-        <v>2.414953415699774e-23</v>
+        <v>1.341640786499887e-31</v>
       </c>
       <c r="O37" t="n">
         <v>5</v>
@@ -2656,49 +2688,49 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n"/>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>parkinsons</t>
+        </is>
+      </c>
       <c r="B38" s="1" t="n">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.0972e+184</v>
+        <v>-2094000</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.08047e+33</v>
+        <v>-2406000000</v>
       </c>
       <c r="E38" t="n">
-        <v>-1.0972e+184</v>
+        <v>-2094000</v>
       </c>
       <c r="F38" t="n">
-        <v>-7.94e+45</v>
+        <v>-73.32000000000001</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.43e-27</v>
+        <v>-0.09108000000000001</v>
       </c>
       <c r="H38" t="n">
-        <v>-1.43e-27</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>-0.09108000000000001</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1216420.979759885</v>
       </c>
       <c r="J38" t="n">
-        <v>6.026874019755183e+32</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>58137767.41499456</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1216420.979759885</v>
       </c>
       <c r="L38" t="n">
-        <v>2.236067977499738e+43</v>
+        <v>0.04472135954999398</v>
       </c>
       <c r="M38" t="n">
-        <v>2.236067977499788e-28</v>
+        <v>0.001162755348299894</v>
       </c>
       <c r="N38" t="n">
-        <v>2.236067977499788e-28</v>
+        <v>0.001162755348299894</v>
       </c>
       <c r="O38" t="n">
         <v>5</v>
@@ -2722,47 +2754,43 @@
     <row r="39">
       <c r="A39" s="1" t="n"/>
       <c r="B39" s="1" t="n">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C39" t="n">
-        <v>-3.54e+281</v>
+        <v>-1588000000</v>
       </c>
       <c r="D39" t="n">
-        <v>-6.312800000000001e+53</v>
+        <v>-2624000000000</v>
       </c>
       <c r="E39" t="n">
-        <v>-3.54e+281</v>
+        <v>-1588000000</v>
       </c>
       <c r="F39" t="n">
-        <v>-4.85e+65</v>
+        <v>-9544</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.626e-29</v>
+        <v>-0.1228</v>
       </c>
       <c r="H39" t="n">
-        <v>-2.626e-29</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>-0.1228</v>
+      </c>
+      <c r="I39" t="n">
+        <v>205718253.9299806</v>
       </c>
       <c r="J39" t="n">
-        <v>1.245892355703333e+54</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>2356815648284.778</v>
+      </c>
+      <c r="K39" t="n">
+        <v>205718253.9299806</v>
       </c>
       <c r="L39" t="n">
-        <v>8.049844718999242e+64</v>
+        <v>53.66563145999496</v>
       </c>
       <c r="M39" t="n">
-        <v>1.341640786499887e-31</v>
+        <v>0.004024922359499625</v>
       </c>
       <c r="N39" t="n">
-        <v>1.341640786499887e-31</v>
+        <v>0.004024922359499625</v>
       </c>
       <c r="O39" t="n">
         <v>5</v>
@@ -2784,49 +2812,45 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>parkinsons</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C40" t="n">
-        <v>-2094000</v>
+        <v>-244540000000000</v>
       </c>
       <c r="D40" t="n">
-        <v>-17980</v>
+        <v>-4.012e+17</v>
       </c>
       <c r="E40" t="n">
-        <v>-2094000</v>
+        <v>-244540000000000</v>
       </c>
       <c r="F40" t="n">
-        <v>-73.32000000000001</v>
+        <v>-2196000</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.09108000000000001</v>
+        <v>-0.337</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.09108000000000001</v>
+        <v>-0.337</v>
       </c>
       <c r="I40" t="n">
-        <v>1216420.979759885</v>
+        <v>97179514302140.86</v>
       </c>
       <c r="J40" t="n">
-        <v>1386.362146049869</v>
+        <v>6.533790630254386e+17</v>
       </c>
       <c r="K40" t="n">
-        <v>1216420.979759885</v>
+        <v>97179514302140.86</v>
       </c>
       <c r="L40" t="n">
-        <v>0.04472135954999398</v>
+        <v>8944.271909999126</v>
       </c>
       <c r="M40" t="n">
-        <v>0.001162755348299894</v>
+        <v>0.01788854381999828</v>
       </c>
       <c r="N40" t="n">
-        <v>0.001162755348299894</v>
+        <v>0.01788854381999828</v>
       </c>
       <c r="O40" t="n">
         <v>5</v>
@@ -2848,45 +2872,49 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n"/>
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>pendigits</t>
+        </is>
+      </c>
       <c r="B41" s="1" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>-1588000000</v>
+        <v>14.348</v>
       </c>
       <c r="D41" t="n">
-        <v>-30500000</v>
+        <v>31280</v>
       </c>
       <c r="E41" t="n">
-        <v>-1588000000</v>
+        <v>14.348</v>
       </c>
       <c r="F41" t="n">
-        <v>-9544</v>
+        <v>-3.226</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.1228</v>
+        <v>14.348</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.1228</v>
+        <v>14.348</v>
       </c>
       <c r="I41" t="n">
-        <v>205718253.9299806</v>
+        <v>9.507761040329106</v>
       </c>
       <c r="J41" t="n">
-        <v>7379024.325749306</v>
+        <v>45123.85178594576</v>
       </c>
       <c r="K41" t="n">
-        <v>205718253.9299806</v>
+        <v>9.507761040329106</v>
       </c>
       <c r="L41" t="n">
-        <v>53.66563145999496</v>
+        <v>0.01341640786499886</v>
       </c>
       <c r="M41" t="n">
-        <v>0.004024922359499625</v>
+        <v>9.507761040329106</v>
       </c>
       <c r="N41" t="n">
-        <v>0.004024922359499625</v>
+        <v>9.507761040329106</v>
       </c>
       <c r="O41" t="n">
         <v>5</v>
@@ -2910,43 +2938,43 @@
     <row r="42">
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C42" t="n">
-        <v>-244540000000000</v>
+        <v>-200.6</v>
       </c>
       <c r="D42" t="n">
-        <v>-484600000000</v>
+        <v>-16360</v>
       </c>
       <c r="E42" t="n">
-        <v>-244540000000000</v>
+        <v>-200.6</v>
       </c>
       <c r="F42" t="n">
-        <v>-2196000</v>
+        <v>-22.7</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.337</v>
+        <v>-0.003402</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.337</v>
+        <v>-0.003402</v>
       </c>
       <c r="I42" t="n">
-        <v>97179514302140.86</v>
+        <v>275.930788423474</v>
       </c>
       <c r="J42" t="n">
-        <v>81392874380.99234</v>
+        <v>983.8699100999075</v>
       </c>
       <c r="K42" t="n">
-        <v>97179514302140.86</v>
+        <v>275.930788423474</v>
       </c>
       <c r="L42" t="n">
-        <v>8944.271909999126</v>
+        <v>0.2236067977499793</v>
       </c>
       <c r="M42" t="n">
-        <v>0.01788854381999828</v>
+        <v>4.472135954999769e-06</v>
       </c>
       <c r="N42" t="n">
-        <v>0.01788854381999828</v>
+        <v>4.472135954999769e-06</v>
       </c>
       <c r="O42" t="n">
         <v>5</v>
@@ -2968,49 +2996,45 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>pendigits</t>
-        </is>
-      </c>
+      <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C43" t="n">
-        <v>14.348</v>
+        <v>-289400</v>
       </c>
       <c r="D43" t="n">
-        <v>-4.574</v>
+        <v>-16820000</v>
       </c>
       <c r="E43" t="n">
-        <v>14.348</v>
+        <v>-289400</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.226</v>
+        <v>-2112</v>
       </c>
       <c r="G43" t="n">
-        <v>14.348</v>
+        <v>-0.0008526</v>
       </c>
       <c r="H43" t="n">
-        <v>14.348</v>
+        <v>-0.0008526</v>
       </c>
       <c r="I43" t="n">
-        <v>9.507761040329106</v>
+        <v>112697.8260659894</v>
       </c>
       <c r="J43" t="n">
-        <v>1.28350301908488</v>
+        <v>6976532.089799344</v>
       </c>
       <c r="K43" t="n">
-        <v>9.507761040329106</v>
+        <v>112697.8260659894</v>
       </c>
       <c r="L43" t="n">
-        <v>0.01341640786499886</v>
+        <v>4.472135954999612</v>
       </c>
       <c r="M43" t="n">
-        <v>9.507761040329106</v>
+        <v>8.944271909999533e-07</v>
       </c>
       <c r="N43" t="n">
-        <v>9.507761040329106</v>
+        <v>8.944271909999533e-07</v>
       </c>
       <c r="O43" t="n">
         <v>5</v>
@@ -3032,45 +3056,49 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>pima</t>
+        </is>
+      </c>
       <c r="B44" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>-200.6</v>
+        <v>15.14</v>
       </c>
       <c r="D44" t="n">
-        <v>-78.75999999999999</v>
+        <v>15836</v>
       </c>
       <c r="E44" t="n">
-        <v>-200.6</v>
+        <v>15.14</v>
       </c>
       <c r="F44" t="n">
-        <v>-22.7</v>
+        <v>-2.79</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.003402</v>
+        <v>15.14</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.003402</v>
+        <v>15.14</v>
       </c>
       <c r="I44" t="n">
-        <v>275.930788423474</v>
+        <v>4.561578674099571</v>
       </c>
       <c r="J44" t="n">
-        <v>2.996331089849714</v>
+        <v>16470.87672226345</v>
       </c>
       <c r="K44" t="n">
-        <v>275.930788423474</v>
+        <v>4.561578674099571</v>
       </c>
       <c r="L44" t="n">
-        <v>0.2236067977499793</v>
+        <v>0.02236067977499783</v>
       </c>
       <c r="M44" t="n">
-        <v>4.472135954999769e-06</v>
+        <v>4.561578674099571</v>
       </c>
       <c r="N44" t="n">
-        <v>4.472135954999769e-06</v>
+        <v>4.561578674099571</v>
       </c>
       <c r="O44" t="n">
         <v>5</v>
@@ -3094,43 +3122,43 @@
     <row r="45">
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>-289400</v>
+        <v>29.16</v>
       </c>
       <c r="D45" t="n">
-        <v>-19700</v>
+        <v>27020</v>
       </c>
       <c r="E45" t="n">
-        <v>-289400</v>
+        <v>29.16</v>
       </c>
       <c r="F45" t="n">
-        <v>-2112</v>
+        <v>-5.802</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.0008526</v>
+        <v>29.16</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.0008526</v>
+        <v>29.16</v>
       </c>
       <c r="I45" t="n">
-        <v>112697.8260659894</v>
+        <v>2.549117494349759</v>
       </c>
       <c r="J45" t="n">
-        <v>894.4271909999161</v>
+        <v>1073.312629199899</v>
       </c>
       <c r="K45" t="n">
-        <v>112697.8260659894</v>
+        <v>2.549117494349759</v>
       </c>
       <c r="L45" t="n">
-        <v>4.472135954999612</v>
+        <v>0.1296919426949879</v>
       </c>
       <c r="M45" t="n">
-        <v>8.944271909999533e-07</v>
+        <v>2.549117494349759</v>
       </c>
       <c r="N45" t="n">
-        <v>8.944271909999533e-07</v>
+        <v>2.549117494349759</v>
       </c>
       <c r="O45" t="n">
         <v>5</v>
@@ -3152,49 +3180,45 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>pima</t>
-        </is>
-      </c>
+      <c r="A46" s="1" t="n"/>
       <c r="B46" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C46" t="n">
-        <v>15.14</v>
+        <v>146.18</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.2974</v>
+        <v>45198</v>
       </c>
       <c r="E46" t="n">
-        <v>15.14</v>
+        <v>146.18</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.79</v>
+        <v>-28.2</v>
       </c>
       <c r="G46" t="n">
-        <v>15.14</v>
+        <v>146.18</v>
       </c>
       <c r="H46" t="n">
-        <v>15.14</v>
+        <v>146.18</v>
       </c>
       <c r="I46" t="n">
-        <v>4.561578674099571</v>
+        <v>59.97134315654436</v>
       </c>
       <c r="J46" t="n">
-        <v>0.3653735075234656</v>
+        <v>22812.36550645285</v>
       </c>
       <c r="K46" t="n">
-        <v>4.561578674099571</v>
+        <v>59.97134315654436</v>
       </c>
       <c r="L46" t="n">
-        <v>0.02236067977499783</v>
+        <v>0.4472135954999577</v>
       </c>
       <c r="M46" t="n">
-        <v>4.561578674099571</v>
+        <v>59.97134315654436</v>
       </c>
       <c r="N46" t="n">
-        <v>4.561578674099571</v>
+        <v>59.97134315654436</v>
       </c>
       <c r="O46" t="n">
         <v>5</v>
@@ -3216,45 +3240,49 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n"/>
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>satellite</t>
+        </is>
+      </c>
       <c r="B47" s="1" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C47" t="n">
-        <v>29.16</v>
+        <v>-20200000</v>
       </c>
       <c r="D47" t="n">
-        <v>-4.130000000000001</v>
+        <v>-855000000</v>
       </c>
       <c r="E47" t="n">
-        <v>29.16</v>
+        <v>-20200000</v>
       </c>
       <c r="F47" t="n">
-        <v>-5.802</v>
+        <v>-9044</v>
       </c>
       <c r="G47" t="n">
-        <v>29.16</v>
+        <v>-0.0103</v>
       </c>
       <c r="H47" t="n">
-        <v>29.16</v>
+        <v>-0.0103</v>
       </c>
       <c r="I47" t="n">
-        <v>2.549117494349759</v>
+        <v>447213.5954999577</v>
       </c>
       <c r="J47" t="n">
-        <v>0.9838699100999074</v>
+        <v>2236067.977499781</v>
       </c>
       <c r="K47" t="n">
-        <v>2.549117494349759</v>
+        <v>447213.5954999577</v>
       </c>
       <c r="L47" t="n">
-        <v>0.1296919426949879</v>
+        <v>58.13776741499466</v>
       </c>
       <c r="M47" t="n">
-        <v>2.549117494349759</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>2.549117494349759</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
         <v>5</v>
@@ -3278,43 +3306,43 @@
     <row r="48">
       <c r="A48" s="1" t="n"/>
       <c r="B48" s="1" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C48" t="n">
-        <v>146.18</v>
+        <v>-223240000000000</v>
       </c>
       <c r="D48" t="n">
-        <v>-28.8</v>
+        <v>-3702000000000000</v>
       </c>
       <c r="E48" t="n">
-        <v>146.18</v>
+        <v>-223240000000000</v>
       </c>
       <c r="F48" t="n">
-        <v>-28.2</v>
+        <v>-79200000</v>
       </c>
       <c r="G48" t="n">
-        <v>146.18</v>
+        <v>-0.02842</v>
       </c>
       <c r="H48" t="n">
-        <v>146.18</v>
+        <v>-0.02842</v>
       </c>
       <c r="I48" t="n">
-        <v>59.97134315654436</v>
+        <v>79961790875392.47</v>
       </c>
       <c r="J48" t="n">
-        <v>3.354101966249681</v>
+        <v>4472135954999.614</v>
       </c>
       <c r="K48" t="n">
-        <v>59.97134315654436</v>
+        <v>79961790875392.47</v>
       </c>
       <c r="L48" t="n">
-        <v>0.4472135954999577</v>
+        <v>447213.5954999569</v>
       </c>
       <c r="M48" t="n">
-        <v>59.97134315654436</v>
+        <v>0.0004919349550499522</v>
       </c>
       <c r="N48" t="n">
-        <v>59.97134315654436</v>
+        <v>0.0004919349550499522</v>
       </c>
       <c r="O48" t="n">
         <v>5</v>
@@ -3336,109 +3364,109 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>satellite</t>
-        </is>
-      </c>
+      <c r="A49" s="1" t="n"/>
       <c r="B49" s="1" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C49" t="n">
-        <v>-20200000</v>
+        <v>-2.332e+21</v>
       </c>
       <c r="D49" t="n">
-        <v>-4208000</v>
+        <v>-1.21e+23</v>
       </c>
       <c r="E49" t="n">
-        <v>-20200000</v>
+        <v>-2.332e+21</v>
       </c>
       <c r="F49" t="n">
-        <v>-9044</v>
+        <v>-3078000000000</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.0103</v>
+        <v>-0.6606</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.0103</v>
+        <v>-0.6606</v>
       </c>
       <c r="I49" t="n">
-        <v>447213.5954999577</v>
+        <v>1.368473602229871e+21</v>
       </c>
       <c r="J49" t="n">
-        <v>263856.0213449752</v>
+        <v>6.708203932499372e+21</v>
       </c>
       <c r="K49" t="n">
-        <v>447213.5954999577</v>
+        <v>1.368473602229871e+21</v>
       </c>
       <c r="L49" t="n">
-        <v>58.13776741499466</v>
+        <v>4472135954.999614</v>
       </c>
       <c r="M49" t="n">
+        <v>0.01654690303349851</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.01654690303349851</v>
+      </c>
+      <c r="O49" t="n">
+        <v>5</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>thyroid</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-1.216</v>
+      </c>
+      <c r="D50" t="n">
+        <v>7110</v>
+      </c>
+      <c r="E50" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="G50" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="H50" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.07602631123499283</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1408.722825824867</v>
+      </c>
+      <c r="K50" t="n">
+        <v>14.71332729194861</v>
+      </c>
+      <c r="L50" t="n">
         <v>0</v>
       </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
-        <v>5</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
-      <c r="T49" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n"/>
-      <c r="B50" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="C50" t="n">
-        <v>-223240000000000</v>
-      </c>
-      <c r="D50" t="n">
-        <v>-10570000000000</v>
-      </c>
-      <c r="E50" t="n">
-        <v>-223240000000000</v>
-      </c>
-      <c r="F50" t="n">
-        <v>-79200000</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-0.02842</v>
-      </c>
-      <c r="H50" t="n">
-        <v>-0.02842</v>
-      </c>
-      <c r="I50" t="n">
-        <v>79961790875392.47</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2750363612324.741</v>
-      </c>
-      <c r="K50" t="n">
-        <v>79961790875392.47</v>
-      </c>
-      <c r="L50" t="n">
-        <v>447213.5954999569</v>
-      </c>
       <c r="M50" t="n">
-        <v>0.0004919349550499522</v>
+        <v>14.71332729194861</v>
       </c>
       <c r="N50" t="n">
-        <v>0.0004919349550499522</v>
+        <v>14.71332729194861</v>
       </c>
       <c r="O50" t="n">
         <v>5</v>
@@ -3462,43 +3490,43 @@
     <row r="51">
       <c r="A51" s="1" t="n"/>
       <c r="B51" s="1" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C51" t="n">
-        <v>-2.332e+21</v>
+        <v>458</v>
       </c>
       <c r="D51" t="n">
-        <v>-6.27e+19</v>
+        <v>-84500000</v>
       </c>
       <c r="E51" t="n">
-        <v>-2.332e+21</v>
+        <v>458</v>
       </c>
       <c r="F51" t="n">
-        <v>-3078000000000</v>
+        <v>-17</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.6606</v>
+        <v>458</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.6606</v>
+        <v>458</v>
       </c>
       <c r="I51" t="n">
-        <v>1.368473602229871e+21</v>
+        <v>248.2035455024767</v>
       </c>
       <c r="J51" t="n">
-        <v>5.590169943749474e+18</v>
+        <v>1341640.786499874</v>
       </c>
       <c r="K51" t="n">
-        <v>1.368473602229871e+21</v>
+        <v>248.2035455024767</v>
       </c>
       <c r="L51" t="n">
-        <v>4472135954.999614</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0.01654690303349851</v>
+        <v>248.2035455024767</v>
       </c>
       <c r="N51" t="n">
-        <v>0.01654690303349851</v>
+        <v>248.2035455024767</v>
       </c>
       <c r="O51" t="n">
         <v>5</v>
@@ -3520,49 +3548,45 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>thyroid</t>
-        </is>
-      </c>
+      <c r="A52" s="1" t="n"/>
       <c r="B52" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.216</v>
+        <v>-1356.28</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.6842</v>
+        <v>-371800000000</v>
       </c>
       <c r="E52" t="n">
-        <v>21.98</v>
+        <v>-1356.28</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.3</v>
+        <v>-59.8</v>
       </c>
       <c r="G52" t="n">
-        <v>21.98</v>
+        <v>-1356.28</v>
       </c>
       <c r="H52" t="n">
-        <v>21.98</v>
+        <v>-1356.28</v>
       </c>
       <c r="I52" t="n">
-        <v>0.07602631123499283</v>
+        <v>790.9419650012256</v>
       </c>
       <c r="J52" t="n">
-        <v>0.1225365251669885</v>
+        <v>45168573145.49576</v>
       </c>
       <c r="K52" t="n">
-        <v>14.71332729194861</v>
+        <v>790.9419650012256</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>0.4472135954999586</v>
       </c>
       <c r="M52" t="n">
-        <v>14.71332729194861</v>
+        <v>790.9419650012256</v>
       </c>
       <c r="N52" t="n">
-        <v>14.71332729194861</v>
+        <v>790.9419650012256</v>
       </c>
       <c r="O52" t="n">
         <v>5</v>
@@ -3584,45 +3608,49 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n"/>
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>vowels</t>
+        </is>
+      </c>
       <c r="B53" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C53" t="n">
-        <v>458</v>
+        <v>155320</v>
       </c>
       <c r="D53" t="n">
-        <v>-6.76</v>
+        <v>155240</v>
       </c>
       <c r="E53" t="n">
-        <v>458</v>
+        <v>226.7</v>
       </c>
       <c r="F53" t="n">
-        <v>-17</v>
+        <v>-6.311999999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>458</v>
+        <v>155320</v>
       </c>
       <c r="H53" t="n">
-        <v>458</v>
+        <v>155320</v>
       </c>
       <c r="I53" t="n">
-        <v>248.2035455024767</v>
+        <v>265913.203884275</v>
       </c>
       <c r="J53" t="n">
-        <v>3.82367624152464</v>
+        <v>265957.925243825</v>
       </c>
       <c r="K53" t="n">
-        <v>248.2035455024767</v>
+        <v>78.93319960574257</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>0.004472135954999468</v>
       </c>
       <c r="M53" t="n">
-        <v>248.2035455024767</v>
+        <v>265913.203884275</v>
       </c>
       <c r="N53" t="n">
-        <v>248.2035455024767</v>
+        <v>265913.203884275</v>
       </c>
       <c r="O53" t="n">
         <v>5</v>
@@ -3646,43 +3674,43 @@
     <row r="54">
       <c r="A54" s="1" t="n"/>
       <c r="B54" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" t="n">
-        <v>-1356.28</v>
+        <v>-206600</v>
       </c>
       <c r="D54" t="n">
-        <v>-266.2</v>
+        <v>-206600</v>
       </c>
       <c r="E54" t="n">
-        <v>-1356.28</v>
+        <v>-94.32000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>-59.8</v>
+        <v>-37.18</v>
       </c>
       <c r="G54" t="n">
-        <v>-1356.28</v>
+        <v>-0.229</v>
       </c>
       <c r="H54" t="n">
-        <v>-1356.28</v>
+        <v>-0.229</v>
       </c>
       <c r="I54" t="n">
-        <v>790.9419650012256</v>
+        <v>153394.2632564856</v>
       </c>
       <c r="J54" t="n">
-        <v>6.260990336999416</v>
+        <v>153394.2632564856</v>
       </c>
       <c r="K54" t="n">
-        <v>790.9419650012256</v>
+        <v>50.13264405554528</v>
       </c>
       <c r="L54" t="n">
-        <v>0.4472135954999586</v>
+        <v>0.04472135954999405</v>
       </c>
       <c r="M54" t="n">
-        <v>790.9419650012256</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>790.9419650012256</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
         <v>5</v>
@@ -3704,109 +3732,109 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>vowels</t>
-        </is>
-      </c>
+      <c r="A55" s="1" t="n"/>
       <c r="B55" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-3451740000</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-3451740000</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-478000</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-876.6</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-0.3002</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-0.3002</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1919127702.368969</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1919127702.368969</v>
+      </c>
+      <c r="K55" t="n">
+        <v>610446.5578574425</v>
+      </c>
+      <c r="L55" t="n">
+        <v>18.78297101099823</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.006260990336999415</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.006260990336999415</v>
+      </c>
+      <c r="O55" t="n">
+        <v>5</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>winequality</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C55" t="n">
-        <v>155320</v>
-      </c>
-      <c r="D55" t="n">
-        <v>-4.228</v>
-      </c>
-      <c r="E55" t="n">
-        <v>226.7</v>
-      </c>
-      <c r="F55" t="n">
-        <v>-6.311999999999999</v>
-      </c>
-      <c r="G55" t="n">
-        <v>155320</v>
-      </c>
-      <c r="H55" t="n">
-        <v>155320</v>
-      </c>
-      <c r="I55" t="n">
-        <v>265913.203884275</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1.627857487619847</v>
-      </c>
-      <c r="K55" t="n">
-        <v>78.93319960574257</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0.004472135954999468</v>
-      </c>
-      <c r="M55" t="n">
-        <v>265913.203884275</v>
-      </c>
-      <c r="N55" t="n">
-        <v>265913.203884275</v>
-      </c>
-      <c r="O55" t="n">
-        <v>5</v>
-      </c>
-      <c r="P55" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>5</v>
-      </c>
-      <c r="R55" t="n">
-        <v>5</v>
-      </c>
-      <c r="S55" t="n">
-        <v>5</v>
-      </c>
-      <c r="T55" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n"/>
-      <c r="B56" s="1" t="n">
-        <v>6</v>
-      </c>
       <c r="C56" t="n">
-        <v>-206600</v>
+        <v>848.9200000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>-2.272</v>
+        <v>150382500</v>
       </c>
       <c r="E56" t="n">
-        <v>-94.32000000000001</v>
+        <v>848.9200000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>-37.18</v>
+        <v>-19.72</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.229</v>
+        <v>848.9200000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.229</v>
+        <v>848.9200000000001</v>
       </c>
       <c r="I56" t="n">
-        <v>153394.2632564856</v>
+        <v>449.6285489156577</v>
       </c>
       <c r="J56" t="n">
-        <v>17.96009799527831</v>
+        <v>84115287.14359833</v>
       </c>
       <c r="K56" t="n">
-        <v>50.13264405554528</v>
+        <v>449.6285489156577</v>
       </c>
       <c r="L56" t="n">
-        <v>0.04472135954999405</v>
+        <v>0.04472135954999714</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>449.6285489156577</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>449.6285489156577</v>
       </c>
       <c r="O56" t="n">
         <v>5</v>
@@ -3830,43 +3858,43 @@
     <row r="57">
       <c r="A57" s="1" t="n"/>
       <c r="B57" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C57" t="n">
-        <v>-3451740000</v>
+        <v>-92380</v>
       </c>
       <c r="D57" t="n">
-        <v>-8438</v>
+        <v>-60200000000</v>
       </c>
       <c r="E57" t="n">
-        <v>-478000</v>
+        <v>-92380</v>
       </c>
       <c r="F57" t="n">
-        <v>-876.6</v>
+        <v>-149.6</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.3002</v>
+        <v>-18.02</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.3002</v>
+        <v>-18.02</v>
       </c>
       <c r="I57" t="n">
-        <v>1919127702.368969</v>
+        <v>81884.80933604229</v>
       </c>
       <c r="J57" t="n">
-        <v>1167.22748425489</v>
+        <v>24373140954.74771</v>
       </c>
       <c r="K57" t="n">
-        <v>610446.5578574425</v>
+        <v>81884.80933604229</v>
       </c>
       <c r="L57" t="n">
-        <v>18.78297101099823</v>
+        <v>0.8944271909999143</v>
       </c>
       <c r="M57" t="n">
-        <v>0.006260990336999415</v>
+        <v>0.1788854381999855</v>
       </c>
       <c r="N57" t="n">
-        <v>0.006260990336999415</v>
+        <v>0.1788854381999855</v>
       </c>
       <c r="O57" t="n">
         <v>5</v>
@@ -3888,109 +3916,109 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>winequality</t>
-        </is>
-      </c>
+      <c r="A58" s="1" t="n"/>
       <c r="B58" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-662400000</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-454400000000000</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-662400000</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-1510</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-87.7</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-87.7</v>
+      </c>
+      <c r="I58" t="n">
+        <v>97492563.81899083</v>
+      </c>
+      <c r="J58" t="n">
+        <v>606868849093442.9</v>
+      </c>
+      <c r="K58" t="n">
+        <v>97492563.81899083</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.6708203932499367</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.6708203932499367</v>
+      </c>
+      <c r="O58" t="n">
+        <v>5</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>winequality-red</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C58" t="n">
-        <v>848.9200000000001</v>
-      </c>
-      <c r="D58" t="n">
-        <v>-41.34</v>
-      </c>
-      <c r="E58" t="n">
-        <v>848.9200000000001</v>
-      </c>
-      <c r="F58" t="n">
-        <v>-19.72</v>
-      </c>
-      <c r="G58" t="n">
-        <v>848.9200000000001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>848.9200000000001</v>
-      </c>
-      <c r="I58" t="n">
-        <v>449.6285489156577</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3.488266044899672</v>
-      </c>
-      <c r="K58" t="n">
-        <v>449.6285489156577</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0.04472135954999714</v>
-      </c>
-      <c r="M58" t="n">
-        <v>449.6285489156577</v>
-      </c>
-      <c r="N58" t="n">
-        <v>449.6285489156577</v>
-      </c>
-      <c r="O58" t="n">
-        <v>5</v>
-      </c>
-      <c r="P58" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>5</v>
-      </c>
-      <c r="R58" t="n">
-        <v>5</v>
-      </c>
-      <c r="S58" t="n">
-        <v>5</v>
-      </c>
-      <c r="T58" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n"/>
-      <c r="B59" s="1" t="n">
-        <v>6</v>
-      </c>
       <c r="C59" t="n">
-        <v>-92380</v>
+        <v>1407.92</v>
       </c>
       <c r="D59" t="n">
-        <v>-873.6</v>
+        <v>58880</v>
       </c>
       <c r="E59" t="n">
-        <v>-92380</v>
+        <v>1407.92</v>
       </c>
       <c r="F59" t="n">
-        <v>-149.6</v>
+        <v>-9.809999999999999</v>
       </c>
       <c r="G59" t="n">
-        <v>-18.02</v>
+        <v>1407.92</v>
       </c>
       <c r="H59" t="n">
-        <v>-18.02</v>
+        <v>1407.92</v>
       </c>
       <c r="I59" t="n">
-        <v>81884.80933604229</v>
+        <v>2969.54299547927</v>
       </c>
       <c r="J59" t="n">
-        <v>629.6767424639407</v>
+        <v>67708.13835869363</v>
       </c>
       <c r="K59" t="n">
-        <v>81884.80933604229</v>
+        <v>2969.54299547927</v>
       </c>
       <c r="L59" t="n">
-        <v>0.8944271909999143</v>
+        <v>0.06708203932499419</v>
       </c>
       <c r="M59" t="n">
-        <v>0.1788854381999855</v>
+        <v>2969.54299547927</v>
       </c>
       <c r="N59" t="n">
-        <v>0.1788854381999855</v>
+        <v>2969.54299547927</v>
       </c>
       <c r="O59" t="n">
         <v>5</v>
@@ -4014,167 +4042,167 @@
     <row r="60">
       <c r="A60" s="1" t="n"/>
       <c r="B60" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-2790</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-4958600000</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-2790</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-73.40000000000001</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-5.340000000000001</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-5.340000000000001</v>
+      </c>
+      <c r="I60" t="n">
+        <v>357.7708763999663</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2641690708.618251</v>
+      </c>
+      <c r="K60" t="n">
+        <v>357.7708763999663</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.8944271909999173</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.1341640786499878</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.1341640786499878</v>
+      </c>
+      <c r="O60" t="n">
+        <v>5</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C60" t="n">
-        <v>-662400000</v>
-      </c>
-      <c r="D60" t="n">
-        <v>-87400</v>
-      </c>
-      <c r="E60" t="n">
-        <v>-662400000</v>
-      </c>
-      <c r="F60" t="n">
-        <v>-1510</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-87.7</v>
-      </c>
-      <c r="H60" t="n">
-        <v>-87.7</v>
-      </c>
-      <c r="I60" t="n">
-        <v>97492563.81899083</v>
-      </c>
-      <c r="J60" t="n">
-        <v>22137.07297724792</v>
-      </c>
-      <c r="K60" t="n">
-        <v>97492563.81899083</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.6708203932499367</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0.6708203932499367</v>
-      </c>
-      <c r="O60" t="n">
-        <v>5</v>
-      </c>
-      <c r="P60" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>5</v>
-      </c>
-      <c r="R60" t="n">
-        <v>5</v>
-      </c>
-      <c r="S60" t="n">
-        <v>5</v>
-      </c>
-      <c r="T60" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>winequality-red</t>
-        </is>
-      </c>
-      <c r="B61" s="1" t="n">
+      <c r="C61" t="n">
+        <v>-636200</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-242000556800000</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-636200</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-598.6</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-15.1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-15.1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>21913.46617949795</v>
+      </c>
+      <c r="J61" t="n">
+        <v>541128139294286.6</v>
+      </c>
+      <c r="K61" t="n">
+        <v>21913.46617949795</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.341640786499875</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.6708203932499369</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.6708203932499369</v>
+      </c>
+      <c r="O61" t="n">
+        <v>5</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>winequality-white</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C61" t="n">
-        <v>1407.92</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="E61" t="n">
-        <v>1407.92</v>
-      </c>
-      <c r="F61" t="n">
-        <v>-9.809999999999999</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1407.92</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1407.92</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2969.54299547927</v>
-      </c>
-      <c r="J61" t="n">
-        <v>30.18691769624716</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2969.54299547927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0.06708203932499419</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2969.54299547927</v>
-      </c>
-      <c r="N61" t="n">
-        <v>2969.54299547927</v>
-      </c>
-      <c r="O61" t="n">
-        <v>5</v>
-      </c>
-      <c r="P61" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>5</v>
-      </c>
-      <c r="R61" t="n">
-        <v>5</v>
-      </c>
-      <c r="S61" t="n">
-        <v>5</v>
-      </c>
-      <c r="T61" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n"/>
-      <c r="B62" s="1" t="n">
-        <v>6</v>
-      </c>
       <c r="C62" t="n">
-        <v>-2790</v>
+        <v>-224.72</v>
       </c>
       <c r="D62" t="n">
-        <v>-297.2</v>
+        <v>-321600</v>
       </c>
       <c r="E62" t="n">
-        <v>-2790</v>
+        <v>-224.72</v>
       </c>
       <c r="F62" t="n">
-        <v>-73.40000000000001</v>
+        <v>-17.44</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.340000000000001</v>
+        <v>-224.72</v>
       </c>
       <c r="H62" t="n">
-        <v>-5.340000000000001</v>
+        <v>-224.72</v>
       </c>
       <c r="I62" t="n">
-        <v>357.7708763999663</v>
+        <v>166.0951293686844</v>
       </c>
       <c r="J62" t="n">
-        <v>72.00138887549323</v>
+        <v>383262.0513434639</v>
       </c>
       <c r="K62" t="n">
-        <v>357.7708763999663</v>
+        <v>166.0951293686844</v>
       </c>
       <c r="L62" t="n">
-        <v>0.8944271909999173</v>
+        <v>0.1341640786499863</v>
       </c>
       <c r="M62" t="n">
-        <v>0.1341640786499878</v>
+        <v>166.0951293686844</v>
       </c>
       <c r="N62" t="n">
-        <v>0.1341640786499878</v>
+        <v>166.0951293686844</v>
       </c>
       <c r="O62" t="n">
         <v>5</v>
@@ -4198,107 +4226,103 @@
     <row r="63">
       <c r="A63" s="1" t="n"/>
       <c r="B63" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-852400</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-58904000000</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-852400</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-120.4</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-28413.68</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-17.18</v>
+      </c>
+      <c r="I63" t="n">
+        <v>397125.6728039627</v>
+      </c>
+      <c r="J63" t="n">
+        <v>30177973424.33716</v>
+      </c>
+      <c r="K63" t="n">
+        <v>397125.6728039627</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.8944271909999173</v>
+      </c>
+      <c r="M63" t="n">
+        <v>63496.68320851098</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.178885438199983</v>
+      </c>
+      <c r="O63" t="n">
+        <v>5</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C63" t="n">
-        <v>-636200</v>
-      </c>
-      <c r="D63" t="n">
-        <v>-13980</v>
-      </c>
-      <c r="E63" t="n">
-        <v>-636200</v>
-      </c>
-      <c r="F63" t="n">
-        <v>-598.6</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-15.1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>-15.1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>21913.46617949795</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1296.919426949878</v>
-      </c>
-      <c r="K63" t="n">
-        <v>21913.46617949795</v>
-      </c>
-      <c r="L63" t="n">
-        <v>1.341640786499875</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.6708203932499369</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0.6708203932499369</v>
-      </c>
-      <c r="O63" t="n">
-        <v>5</v>
-      </c>
-      <c r="P63" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>5</v>
-      </c>
-      <c r="R63" t="n">
-        <v>5</v>
-      </c>
-      <c r="S63" t="n">
-        <v>5</v>
-      </c>
-      <c r="T63" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>winequality-white</t>
-        </is>
-      </c>
-      <c r="B64" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="C64" t="n">
-        <v>-224.72</v>
+        <v>-305000000</v>
       </c>
       <c r="D64" t="n">
-        <v>-19.14</v>
+        <v>-457200000000000</v>
       </c>
       <c r="E64" t="n">
-        <v>-224.72</v>
+        <v>-305000000</v>
       </c>
       <c r="F64" t="n">
-        <v>-17.44</v>
+        <v>-1090</v>
       </c>
       <c r="G64" t="n">
-        <v>-224.72</v>
+        <v>-74.95999999999999</v>
       </c>
       <c r="H64" t="n">
-        <v>-224.72</v>
+        <v>-74.95999999999999</v>
       </c>
       <c r="I64" t="n">
-        <v>166.0951293686844</v>
+        <v>154288690.4474855</v>
       </c>
       <c r="J64" t="n">
-        <v>0.3577708763999685</v>
+        <v>353745954040466.8</v>
       </c>
       <c r="K64" t="n">
-        <v>166.0951293686844</v>
+        <v>154288690.4474855</v>
       </c>
       <c r="L64" t="n">
-        <v>0.1341640786499863</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>166.0951293686844</v>
+        <v>0.3577708763999628</v>
       </c>
       <c r="N64" t="n">
-        <v>166.0951293686844</v>
+        <v>0.3577708763999628</v>
       </c>
       <c r="O64" t="n">
         <v>5</v>
@@ -4320,45 +4344,49 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n"/>
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>yeast</t>
+        </is>
+      </c>
       <c r="B65" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C65" t="n">
-        <v>-852400</v>
+        <v>218492</v>
       </c>
       <c r="D65" t="n">
-        <v>-1246</v>
+        <v>203000</v>
       </c>
       <c r="E65" t="n">
-        <v>-852400</v>
+        <v>218492</v>
       </c>
       <c r="F65" t="n">
-        <v>-120.4</v>
+        <v>-6.004</v>
       </c>
       <c r="G65" t="n">
-        <v>-28413.68</v>
+        <v>218492</v>
       </c>
       <c r="H65" t="n">
-        <v>-17.18</v>
+        <v>218492</v>
       </c>
       <c r="I65" t="n">
-        <v>397125.6728039627</v>
+        <v>121883.5933175585</v>
       </c>
       <c r="J65" t="n">
-        <v>53.66563145999496</v>
+        <v>46957.42752749559</v>
       </c>
       <c r="K65" t="n">
-        <v>397125.6728039627</v>
+        <v>121883.5933175585</v>
       </c>
       <c r="L65" t="n">
-        <v>0.8944271909999173</v>
+        <v>0.03577708763999608</v>
       </c>
       <c r="M65" t="n">
-        <v>63496.68320851098</v>
+        <v>121883.5933175585</v>
       </c>
       <c r="N65" t="n">
-        <v>0.178885438199983</v>
+        <v>121883.5933175585</v>
       </c>
       <c r="O65" t="n">
         <v>5</v>
@@ -4382,43 +4410,43 @@
     <row r="66">
       <c r="A66" s="1" t="n"/>
       <c r="B66" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C66" t="n">
-        <v>-305000000</v>
+        <v>1429.4</v>
       </c>
       <c r="D66" t="n">
-        <v>-18320</v>
+        <v>-34380000</v>
       </c>
       <c r="E66" t="n">
-        <v>-305000000</v>
+        <v>1429.4</v>
       </c>
       <c r="F66" t="n">
-        <v>-1090</v>
+        <v>-14.18</v>
       </c>
       <c r="G66" t="n">
-        <v>-74.95999999999999</v>
+        <v>1429.4</v>
       </c>
       <c r="H66" t="n">
-        <v>-74.95999999999999</v>
+        <v>1429.4</v>
       </c>
       <c r="I66" t="n">
-        <v>154288690.4474855</v>
+        <v>247.3091183114767</v>
       </c>
       <c r="J66" t="n">
-        <v>7200.138887549323</v>
+        <v>268328.1572999748</v>
       </c>
       <c r="K66" t="n">
-        <v>154288690.4474855</v>
+        <v>247.3091183114767</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>0.2683281572999756</v>
       </c>
       <c r="M66" t="n">
-        <v>0.3577708763999628</v>
+        <v>247.3091183114767</v>
       </c>
       <c r="N66" t="n">
-        <v>0.3577708763999628</v>
+        <v>247.3091183114767</v>
       </c>
       <c r="O66" t="n">
         <v>5</v>
@@ -4440,49 +4468,45 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>yeast</t>
-        </is>
-      </c>
+      <c r="A67" s="1" t="n"/>
       <c r="B67" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C67" t="n">
-        <v>218492</v>
+        <v>22922.4</v>
       </c>
       <c r="D67" t="n">
-        <v>-2.74</v>
+        <v>-66080000000000</v>
       </c>
       <c r="E67" t="n">
-        <v>218492</v>
+        <v>22922.4</v>
       </c>
       <c r="F67" t="n">
-        <v>-6.004</v>
+        <v>-144.4</v>
       </c>
       <c r="G67" t="n">
-        <v>218492</v>
+        <v>22922.4</v>
       </c>
       <c r="H67" t="n">
-        <v>218492</v>
+        <v>22922.4</v>
       </c>
       <c r="I67" t="n">
-        <v>121883.5933175585</v>
+        <v>53149.9941843835</v>
       </c>
       <c r="J67" t="n">
-        <v>0.3354101966249685</v>
+        <v>8005123359449.247</v>
       </c>
       <c r="K67" t="n">
-        <v>121883.5933175585</v>
+        <v>53149.9941843835</v>
       </c>
       <c r="L67" t="n">
-        <v>0.03577708763999608</v>
+        <v>0.8944271909999143</v>
       </c>
       <c r="M67" t="n">
-        <v>121883.5933175585</v>
+        <v>53149.9941843835</v>
       </c>
       <c r="N67" t="n">
-        <v>121883.5933175585</v>
+        <v>53149.9941843835</v>
       </c>
       <c r="O67" t="n">
         <v>5</v>
@@ -4503,128 +4527,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n"/>
-      <c r="B68" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1429.4</v>
-      </c>
-      <c r="D68" t="n">
-        <v>-10.82</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1429.4</v>
-      </c>
-      <c r="F68" t="n">
-        <v>-14.18</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1429.4</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1429.4</v>
-      </c>
-      <c r="I68" t="n">
-        <v>247.3091183114767</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.1788854381999842</v>
-      </c>
-      <c r="K68" t="n">
-        <v>247.3091183114767</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0.2683281572999756</v>
-      </c>
-      <c r="M68" t="n">
-        <v>247.3091183114767</v>
-      </c>
-      <c r="N68" t="n">
-        <v>247.3091183114767</v>
-      </c>
-      <c r="O68" t="n">
-        <v>5</v>
-      </c>
-      <c r="P68" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>5</v>
-      </c>
-      <c r="R68" t="n">
-        <v>5</v>
-      </c>
-      <c r="S68" t="n">
-        <v>5</v>
-      </c>
-      <c r="T68" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n"/>
-      <c r="B69" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="C69" t="n">
-        <v>22922.4</v>
-      </c>
-      <c r="D69" t="n">
-        <v>811.6</v>
-      </c>
-      <c r="E69" t="n">
-        <v>22922.4</v>
-      </c>
-      <c r="F69" t="n">
-        <v>-144.4</v>
-      </c>
-      <c r="G69" t="n">
-        <v>22922.4</v>
-      </c>
-      <c r="H69" t="n">
-        <v>22922.4</v>
-      </c>
-      <c r="I69" t="n">
-        <v>53149.9941843835</v>
-      </c>
-      <c r="J69" t="n">
-        <v>823.7674429109226</v>
-      </c>
-      <c r="K69" t="n">
-        <v>53149.9941843835</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0.8944271909999143</v>
-      </c>
-      <c r="M69" t="n">
-        <v>53149.9941843835</v>
-      </c>
-      <c r="N69" t="n">
-        <v>53149.9941843835</v>
-      </c>
-      <c r="O69" t="n">
-        <v>5</v>
-      </c>
-      <c r="P69" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>5</v>
-      </c>
-      <c r="R69" t="n">
-        <v>5</v>
-      </c>
-      <c r="S69" t="n">
-        <v>5</v>
-      </c>
-      <c r="T69" t="n">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="27">
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="O1:T1"/>
@@ -4632,27 +4536,26 @@
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="O2:T2"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A67"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sorted_result/realdata_summary.xlsx
+++ b/sorted_result/realdata_summary.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1958,7 +1958,7 @@
         <v>-333.6</v>
       </c>
       <c r="D26" t="n">
-        <v>-24664</v>
+        <v>-413664</v>
       </c>
       <c r="E26" t="n">
         <v>-333.6</v>
@@ -1976,7 +1976,7 @@
         <v>76.92073842599277</v>
       </c>
       <c r="J26" t="n">
-        <v>44909.18926010578</v>
+        <v>914739.632507524</v>
       </c>
       <c r="K26" t="n">
         <v>76.92073842599277</v>
